--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业建筑业总产值.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业建筑业总产值.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,46 @@
           <t>国有及国有控股建筑业企业装饰装修产值_累计值</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业其他产值</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业在外省完成的产值</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业安装工程产值</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业建筑业总产值</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业建筑业竣工产值</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业建筑工程产值</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业装饰装修产值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -493,11 +528,28 @@
         <v>2990.16</v>
       </c>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>97.65000000000001</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>436.25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3524.06</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1308.19</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2990.16</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -517,11 +569,28 @@
         <v>7830.39</v>
       </c>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>209.02</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>675.9100000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5725.15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4791.950000000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4840.23</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -545,67 +614,130 @@
       <c r="H4" t="n">
         <v>65.86</v>
       </c>
+      <c r="I4" t="n">
+        <v>60.41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>447.45</v>
+      </c>
+      <c r="K4" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1601</v>
+      </c>
+      <c r="M4" t="n">
+        <v>535.27</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1342.09</v>
+      </c>
+      <c r="O4" t="n">
+        <v>65.86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>239.92</v>
+        <v>139.87</v>
       </c>
       <c r="C5" t="n">
-        <v>2141.72</v>
+        <v>1227.37</v>
       </c>
       <c r="D5" t="n">
-        <v>826.04</v>
+        <v>502.24</v>
       </c>
       <c r="E5" t="n">
-        <v>7078.39</v>
+        <v>4236.64</v>
       </c>
       <c r="F5" t="n">
-        <v>2840.59</v>
+        <v>1468.01</v>
       </c>
       <c r="G5" t="n">
-        <v>6012.43</v>
+        <v>3594.53</v>
       </c>
       <c r="H5" t="n">
-        <v>279.42</v>
+        <v>167.85</v>
+      </c>
+      <c r="I5" t="n">
+        <v>79.46000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>779.9199999999998</v>
+      </c>
+      <c r="K5" t="n">
+        <v>303.74</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2635.64</v>
+      </c>
+      <c r="M5" t="n">
+        <v>932.74</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2252.440000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>101.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139.87</v>
+        <v>239.92</v>
       </c>
       <c r="C6" t="n">
-        <v>1227.37</v>
+        <v>2141.72</v>
       </c>
       <c r="D6" t="n">
-        <v>502.24</v>
+        <v>826.04</v>
       </c>
       <c r="E6" t="n">
-        <v>4236.64</v>
+        <v>7078.39</v>
       </c>
       <c r="F6" t="n">
-        <v>1468.01</v>
+        <v>2840.59</v>
       </c>
       <c r="G6" t="n">
-        <v>3594.53</v>
+        <v>6012.43</v>
       </c>
       <c r="H6" t="n">
-        <v>167.85</v>
+        <v>279.42</v>
+      </c>
+      <c r="I6" t="n">
+        <v>100.05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>914.3499999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>323.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2841.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1372.58</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2417.9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>111.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -629,11 +761,32 @@
       <c r="H7" t="n">
         <v>425.36</v>
       </c>
+      <c r="I7" t="n">
+        <v>203.27</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1234.15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>545.52</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3930.31</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3865.62</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3181.52</v>
+      </c>
+      <c r="O7" t="n">
+        <v>145.94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -657,67 +810,130 @@
       <c r="H8" t="n">
         <v>62.57</v>
       </c>
+      <c r="I8" t="n">
+        <v>57.35</v>
+      </c>
+      <c r="J8" t="n">
+        <v>561.97</v>
+      </c>
+      <c r="K8" t="n">
+        <v>254.84</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1772.61</v>
+      </c>
+      <c r="M8" t="n">
+        <v>582.26</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1460.42</v>
+      </c>
+      <c r="O8" t="n">
+        <v>62.57</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.14</v>
+        <v>146.89</v>
       </c>
       <c r="C9" t="n">
-        <v>2761.98</v>
+        <v>1657.71</v>
       </c>
       <c r="D9" t="n">
-        <v>1046.59</v>
+        <v>627.21</v>
       </c>
       <c r="E9" t="n">
-        <v>8177.99</v>
+        <v>4856.25</v>
       </c>
       <c r="F9" t="n">
-        <v>3096.02</v>
+        <v>1636.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6897.26</v>
+        <v>4082.15</v>
       </c>
       <c r="H9" t="n">
-        <v>300.43</v>
+        <v>173.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>89.53999999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1095.74</v>
+      </c>
+      <c r="K9" t="n">
+        <v>372.37</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3083.64</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1053.75</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2621.73</v>
+      </c>
+      <c r="O9" t="n">
+        <v>110.93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>146.89</v>
+        <v>234.14</v>
       </c>
       <c r="C10" t="n">
-        <v>1657.71</v>
+        <v>2761.98</v>
       </c>
       <c r="D10" t="n">
-        <v>627.21</v>
+        <v>1046.59</v>
       </c>
       <c r="E10" t="n">
-        <v>4856.25</v>
+        <v>8177.99</v>
       </c>
       <c r="F10" t="n">
-        <v>1636.01</v>
+        <v>3096.02</v>
       </c>
       <c r="G10" t="n">
-        <v>4082.15</v>
+        <v>6897.26</v>
       </c>
       <c r="H10" t="n">
-        <v>173.5</v>
+        <v>300.43</v>
+      </c>
+      <c r="I10" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1104.27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>419.3799999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3321.74</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1460.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2815.11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>126.93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -741,11 +957,32 @@
       <c r="H11" t="n">
         <v>529.6</v>
       </c>
+      <c r="I11" t="n">
+        <v>216.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1654.53</v>
+      </c>
+      <c r="K11" t="n">
+        <v>657.0500000000002</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5322.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4316.549999999999</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4448.57</v>
+      </c>
+      <c r="O11" t="n">
+        <v>229.17</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -769,67 +1006,130 @@
       <c r="H12" t="n">
         <v>75.17</v>
       </c>
+      <c r="I12" t="n">
+        <v>77.45999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>672.48</v>
+      </c>
+      <c r="K12" t="n">
+        <v>273.66</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2032.43</v>
+      </c>
+      <c r="M12" t="n">
+        <v>650.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1681.3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>75.17</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>297.96</v>
+        <v>190.53</v>
       </c>
       <c r="C13" t="n">
-        <v>3531.37</v>
+        <v>2005.95</v>
       </c>
       <c r="D13" t="n">
-        <v>1177.45</v>
+        <v>714.1799999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>9931.799999999999</v>
+        <v>5796.18</v>
       </c>
       <c r="F13" t="n">
-        <v>3583.06</v>
+        <v>1838.09</v>
       </c>
       <c r="G13" t="n">
-        <v>8456.4</v>
+        <v>4891.48</v>
       </c>
       <c r="H13" t="n">
-        <v>338.65</v>
+        <v>188.81</v>
+      </c>
+      <c r="I13" t="n">
+        <v>113.07</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1333.47</v>
+      </c>
+      <c r="K13" t="n">
+        <v>440.5199999999999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3763.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1187.96</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3210.179999999999</v>
+      </c>
+      <c r="O13" t="n">
+        <v>113.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>190.53</v>
+        <v>297.96</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.95</v>
+        <v>3531.37</v>
       </c>
       <c r="D14" t="n">
-        <v>714.1799999999999</v>
+        <v>1177.45</v>
       </c>
       <c r="E14" t="n">
-        <v>5796.18</v>
+        <v>9931.799999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>1838.09</v>
+        <v>3583.06</v>
       </c>
       <c r="G14" t="n">
-        <v>4891.48</v>
+        <v>8456.4</v>
       </c>
       <c r="H14" t="n">
-        <v>188.81</v>
+        <v>338.65</v>
+      </c>
+      <c r="I14" t="n">
+        <v>107.43</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1525.42</v>
+      </c>
+      <c r="K14" t="n">
+        <v>463.2700000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4135.619999999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1744.97</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3564.92</v>
+      </c>
+      <c r="O14" t="n">
+        <v>149.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -853,11 +1153,32 @@
       <c r="H15" t="n">
         <v>611.9</v>
       </c>
+      <c r="I15" t="n">
+        <v>221.82</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1914.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>622.47</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5650.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5017.33</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4806.309999999999</v>
+      </c>
+      <c r="O15" t="n">
+        <v>273.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -881,67 +1202,130 @@
       <c r="H16" t="n">
         <v>82.34</v>
       </c>
+      <c r="I16" t="n">
+        <v>67.27</v>
+      </c>
+      <c r="J16" t="n">
+        <v>926.04</v>
+      </c>
+      <c r="K16" t="n">
+        <v>316.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2416.54</v>
+      </c>
+      <c r="M16" t="n">
+        <v>730.67</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2032.37</v>
+      </c>
+      <c r="O16" t="n">
+        <v>82.34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>283.78</v>
+        <v>170.25</v>
       </c>
       <c r="C17" t="n">
-        <v>4169.51</v>
+        <v>2534.26</v>
       </c>
       <c r="D17" t="n">
-        <v>1363.17</v>
+        <v>822.54</v>
       </c>
       <c r="E17" t="n">
-        <v>11309</v>
+        <v>6803.56</v>
       </c>
       <c r="F17" t="n">
-        <v>3819.91</v>
+        <v>2052.29</v>
       </c>
       <c r="G17" t="n">
-        <v>9662.049999999999</v>
+        <v>5810.77</v>
       </c>
       <c r="H17" t="n">
-        <v>377.33</v>
+        <v>222.22</v>
+      </c>
+      <c r="I17" t="n">
+        <v>102.98</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1608.22</v>
+      </c>
+      <c r="K17" t="n">
+        <v>505.64</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4387.02</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1321.62</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3778.400000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>139.88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>170.25</v>
+        <v>283.78</v>
       </c>
       <c r="C18" t="n">
-        <v>2534.26</v>
+        <v>4169.51</v>
       </c>
       <c r="D18" t="n">
-        <v>822.54</v>
+        <v>1363.17</v>
       </c>
       <c r="E18" t="n">
-        <v>6803.56</v>
+        <v>11309</v>
       </c>
       <c r="F18" t="n">
-        <v>2052.29</v>
+        <v>3819.91</v>
       </c>
       <c r="G18" t="n">
-        <v>5810.77</v>
+        <v>9662.049999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>222.22</v>
+        <v>377.33</v>
+      </c>
+      <c r="I18" t="n">
+        <v>113.53</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1635.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>540.6300000000001</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4505.44</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1767.62</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3851.279999999999</v>
+      </c>
+      <c r="O18" t="n">
+        <v>155.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -965,11 +1349,32 @@
       <c r="H19" t="n">
         <v>593.48</v>
       </c>
+      <c r="I19" t="n">
+        <v>152.64</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2256.16</v>
+      </c>
+      <c r="K19" t="n">
+        <v>757.4499999999998</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6475.830000000002</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5173.860000000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5565.740000000002</v>
+      </c>
+      <c r="O19" t="n">
+        <v>216.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -993,67 +1398,130 @@
       <c r="H20" t="n">
         <v>103.02</v>
       </c>
+      <c r="I20" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1132.44</v>
+      </c>
+      <c r="K20" t="n">
+        <v>352.08</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2939.35</v>
+      </c>
+      <c r="M20" t="n">
+        <v>846.9299999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2515.85</v>
+      </c>
+      <c r="O20" t="n">
+        <v>103.02</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>311.29</v>
+        <v>181.82</v>
       </c>
       <c r="C21" t="n">
-        <v>5344.79</v>
+        <v>3267.15</v>
       </c>
       <c r="D21" t="n">
-        <v>1593.65</v>
+        <v>950.2</v>
       </c>
       <c r="E21" t="n">
-        <v>13990.24</v>
+        <v>8476.91</v>
       </c>
       <c r="F21" t="n">
-        <v>4363.14</v>
+        <v>2431.87</v>
       </c>
       <c r="G21" t="n">
-        <v>12085.31</v>
+        <v>7344.88</v>
       </c>
       <c r="H21" t="n">
-        <v>437.01</v>
+        <v>292.47</v>
+      </c>
+      <c r="I21" t="n">
+        <v>110.39</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2134.71</v>
+      </c>
+      <c r="K21" t="n">
+        <v>598.1200000000001</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5537.559999999999</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1584.94</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4829.030000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>189.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.82</v>
+        <v>311.29</v>
       </c>
       <c r="C22" t="n">
-        <v>3267.15</v>
+        <v>5344.79</v>
       </c>
       <c r="D22" t="n">
-        <v>950.2</v>
+        <v>1593.65</v>
       </c>
       <c r="E22" t="n">
-        <v>8476.91</v>
+        <v>13990.24</v>
       </c>
       <c r="F22" t="n">
-        <v>2431.87</v>
+        <v>4363.14</v>
       </c>
       <c r="G22" t="n">
-        <v>7344.88</v>
+        <v>12085.31</v>
       </c>
       <c r="H22" t="n">
-        <v>292.47</v>
+        <v>437.01</v>
+      </c>
+      <c r="I22" t="n">
+        <v>129.47</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2077.64</v>
+      </c>
+      <c r="K22" t="n">
+        <v>643.45</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5513.33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1931.27</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4740.429999999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>144.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1077,11 +1545,32 @@
       <c r="H23" t="n">
         <v>706</v>
       </c>
+      <c r="I23" t="n">
+        <v>233.3899999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2974.919999999999</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1113.38</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8328.800000000001</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5741.669999999999</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6982.020000000002</v>
+      </c>
+      <c r="O23" t="n">
+        <v>268.99</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1105,67 +1594,130 @@
       <c r="H24" t="n">
         <v>96.37</v>
       </c>
+      <c r="I24" t="n">
+        <v>90.94</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1593.27</v>
+      </c>
+      <c r="K24" t="n">
+        <v>406.83</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3669.03</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1014.15</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3171.26</v>
+      </c>
+      <c r="O24" t="n">
+        <v>96.37</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>430.74</v>
+        <v>261.6</v>
       </c>
       <c r="C25" t="n">
-        <v>7286.84</v>
+        <v>4521.14</v>
       </c>
       <c r="D25" t="n">
-        <v>1755.84</v>
+        <v>1069.49</v>
       </c>
       <c r="E25" t="n">
-        <v>17558.73</v>
+        <v>10564.87</v>
       </c>
       <c r="F25" t="n">
-        <v>5191.34</v>
+        <v>2862.25</v>
       </c>
       <c r="G25" t="n">
-        <v>15372.16</v>
+        <v>9233.780000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>485.19</v>
+        <v>278.31</v>
+      </c>
+      <c r="I25" t="n">
+        <v>170.66</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2927.87</v>
+      </c>
+      <c r="K25" t="n">
+        <v>662.6600000000001</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6895.84</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1848.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6062.52</v>
+      </c>
+      <c r="O25" t="n">
+        <v>181.94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.6</v>
+        <v>430.74</v>
       </c>
       <c r="C26" t="n">
-        <v>4521.14</v>
+        <v>7286.84</v>
       </c>
       <c r="D26" t="n">
-        <v>1069.49</v>
+        <v>1755.84</v>
       </c>
       <c r="E26" t="n">
-        <v>10564.87</v>
+        <v>17558.73</v>
       </c>
       <c r="F26" t="n">
-        <v>2862.25</v>
+        <v>5191.34</v>
       </c>
       <c r="G26" t="n">
-        <v>9233.780000000001</v>
+        <v>15372.16</v>
       </c>
       <c r="H26" t="n">
-        <v>278.31</v>
+        <v>485.19</v>
+      </c>
+      <c r="I26" t="n">
+        <v>169.14</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2765.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>686.3499999999999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6993.859999999999</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2329.09</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6138.379999999999</v>
+      </c>
+      <c r="O26" t="n">
+        <v>206.88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1189,11 +1741,32 @@
       <c r="H27" t="n">
         <v>825.76</v>
       </c>
+      <c r="I27" t="n">
+        <v>264.78</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4201.959999999999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>974.8300000000002</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10356.27</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6455.039999999999</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9116.66</v>
+      </c>
+      <c r="O27" t="n">
+        <v>340.57</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1217,67 +1790,130 @@
       <c r="H28" t="n">
         <v>126.11</v>
       </c>
+      <c r="I28" t="n">
+        <v>105.31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2000.57</v>
+      </c>
+      <c r="K28" t="n">
+        <v>423.21</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4477.44</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1132.88</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3948.93</v>
+      </c>
+      <c r="O28" t="n">
+        <v>126.11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>463.77</v>
+        <v>285.97</v>
       </c>
       <c r="C29" t="n">
-        <v>9238.469999999999</v>
+        <v>5577.87</v>
       </c>
       <c r="D29" t="n">
-        <v>1856.61</v>
+        <v>1145.02</v>
       </c>
       <c r="E29" t="n">
-        <v>20635.21</v>
+        <v>12419.5</v>
       </c>
       <c r="F29" t="n">
-        <v>5608.38</v>
+        <v>3316.55</v>
       </c>
       <c r="G29" t="n">
-        <v>18314.83</v>
+        <v>10988.51</v>
       </c>
       <c r="H29" t="n">
-        <v>543.49</v>
+        <v>367.98</v>
+      </c>
+      <c r="I29" t="n">
+        <v>180.66</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3577.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>721.8099999999999</v>
+      </c>
+      <c r="L29" t="n">
+        <v>7942.06</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2183.67</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7039.58</v>
+      </c>
+      <c r="O29" t="n">
+        <v>241.87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>285.97</v>
+        <v>463.77</v>
       </c>
       <c r="C30" t="n">
-        <v>5577.87</v>
+        <v>9238.469999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>1145.02</v>
+        <v>1856.61</v>
       </c>
       <c r="E30" t="n">
-        <v>12419.5</v>
+        <v>20635.21</v>
       </c>
       <c r="F30" t="n">
-        <v>3316.55</v>
+        <v>5608.38</v>
       </c>
       <c r="G30" t="n">
-        <v>10988.51</v>
+        <v>18314.83</v>
       </c>
       <c r="H30" t="n">
-        <v>367.98</v>
+        <v>543.49</v>
+      </c>
+      <c r="I30" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3660.599999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>711.5899999999999</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8215.709999999999</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2291.83</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7326.320000000002</v>
+      </c>
+      <c r="O30" t="n">
+        <v>175.51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1301,11 +1937,32 @@
       <c r="H31" t="n">
         <v>938.03</v>
       </c>
+      <c r="I31" t="n">
+        <v>268.86</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5044.970000000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1051.13</v>
+      </c>
+      <c r="L31" t="n">
+        <v>12690.42</v>
+      </c>
+      <c r="M31" t="n">
+        <v>7148.849999999999</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11370.43</v>
+      </c>
+      <c r="O31" t="n">
+        <v>394.54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1329,67 +1986,130 @@
       <c r="H32" t="n">
         <v>149.66</v>
       </c>
+      <c r="I32" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2492.52</v>
+      </c>
+      <c r="K32" t="n">
+        <v>493.82</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5405.81</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1294.57</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4797.6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>149.66</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>519.59</v>
+        <v>306.14</v>
       </c>
       <c r="C33" t="n">
-        <v>10638.48</v>
+        <v>6674.57</v>
       </c>
       <c r="D33" t="n">
-        <v>2135.21</v>
+        <v>1321</v>
       </c>
       <c r="E33" t="n">
-        <v>24832.58</v>
+        <v>15056.94</v>
       </c>
       <c r="F33" t="n">
-        <v>6700</v>
+        <v>3612.38</v>
       </c>
       <c r="G33" t="n">
-        <v>22177.78</v>
+        <v>13429.8</v>
       </c>
       <c r="H33" t="n">
-        <v>715.5599999999999</v>
+        <v>416.55</v>
+      </c>
+      <c r="I33" t="n">
+        <v>191.74</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4182.049999999999</v>
+      </c>
+      <c r="K33" t="n">
+        <v>827.1800000000001</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9651.130000000001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2317.81</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8632.199999999999</v>
+      </c>
+      <c r="O33" t="n">
+        <v>266.89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>306.14</v>
+        <v>519.59</v>
       </c>
       <c r="C34" t="n">
-        <v>6674.57</v>
+        <v>10638.48</v>
       </c>
       <c r="D34" t="n">
-        <v>1321</v>
+        <v>2135.21</v>
       </c>
       <c r="E34" t="n">
-        <v>15056.94</v>
+        <v>24832.58</v>
       </c>
       <c r="F34" t="n">
-        <v>3612.38</v>
+        <v>6700</v>
       </c>
       <c r="G34" t="n">
-        <v>13429.8</v>
+        <v>22177.78</v>
       </c>
       <c r="H34" t="n">
-        <v>416.55</v>
+        <v>715.5599999999999</v>
+      </c>
+      <c r="I34" t="n">
+        <v>213.45</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3963.91</v>
+      </c>
+      <c r="K34" t="n">
+        <v>814.21</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9775.640000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3087.62</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8747.98</v>
+      </c>
+      <c r="O34" t="n">
+        <v>299.0099999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1413,11 +2133,32 @@
       <c r="H35" t="n">
         <v>1148.61</v>
       </c>
+      <c r="I35" t="n">
+        <v>316.79</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5181.82</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1145</v>
+      </c>
+      <c r="L35" t="n">
+        <v>14030.29</v>
+      </c>
+      <c r="M35" t="n">
+        <v>7812.48</v>
+      </c>
+      <c r="N35" t="n">
+        <v>12568.51</v>
+      </c>
+      <c r="O35" t="n">
+        <v>433.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1441,67 +2182,130 @@
       <c r="H36" t="n">
         <v>168.68</v>
       </c>
+      <c r="I36" t="n">
+        <v>136.93</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2633.24</v>
+      </c>
+      <c r="K36" t="n">
+        <v>561.6799999999999</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6088.45</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1518.13</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5389.84</v>
+      </c>
+      <c r="O36" t="n">
+        <v>168.68</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>596.39</v>
+        <v>352.54</v>
       </c>
       <c r="C37" t="n">
-        <v>12616.48</v>
+        <v>7611.04</v>
       </c>
       <c r="D37" t="n">
-        <v>2382.57</v>
+        <v>1471.37</v>
       </c>
       <c r="E37" t="n">
-        <v>28720.09</v>
+        <v>17036.17</v>
       </c>
       <c r="F37" t="n">
-        <v>7624.62</v>
+        <v>4222.52</v>
       </c>
       <c r="G37" t="n">
-        <v>25741.13</v>
+        <v>15212.26</v>
       </c>
       <c r="H37" t="n">
-        <v>892.84</v>
+        <v>494.65</v>
+      </c>
+      <c r="I37" t="n">
+        <v>215.61</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4977.8</v>
+      </c>
+      <c r="K37" t="n">
+        <v>909.6899999999999</v>
+      </c>
+      <c r="L37" t="n">
+        <v>10947.72</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2704.39</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9822.42</v>
+      </c>
+      <c r="O37" t="n">
+        <v>325.97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>352.54</v>
+        <v>596.39</v>
       </c>
       <c r="C38" t="n">
-        <v>7611.04</v>
+        <v>12616.48</v>
       </c>
       <c r="D38" t="n">
-        <v>1471.37</v>
+        <v>2382.57</v>
       </c>
       <c r="E38" t="n">
-        <v>17036.17</v>
+        <v>28720.09</v>
       </c>
       <c r="F38" t="n">
-        <v>4222.52</v>
+        <v>7624.62</v>
       </c>
       <c r="G38" t="n">
-        <v>15212.26</v>
+        <v>25741.13</v>
       </c>
       <c r="H38" t="n">
-        <v>494.65</v>
+        <v>892.84</v>
+      </c>
+      <c r="I38" t="n">
+        <v>243.85</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5005.44</v>
+      </c>
+      <c r="K38" t="n">
+        <v>911.2000000000003</v>
+      </c>
+      <c r="L38" t="n">
+        <v>11683.92</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3402.099999999999</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10528.87</v>
+      </c>
+      <c r="O38" t="n">
+        <v>398.1900000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1525,11 +2329,32 @@
       <c r="H39" t="n">
         <v>1288.57</v>
       </c>
+      <c r="I39" t="n">
+        <v>384.5600000000001</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6209.380000000001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1267.64</v>
+      </c>
+      <c r="L39" t="n">
+        <v>14730.15</v>
+      </c>
+      <c r="M39" t="n">
+        <v>9595.440000000002</v>
+      </c>
+      <c r="N39" t="n">
+        <v>13077.95</v>
+      </c>
+      <c r="O39" t="n">
+        <v>395.7299999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1553,67 +2378,130 @@
       <c r="H40" t="n">
         <v>212.56</v>
       </c>
+      <c r="I40" t="n">
+        <v>169.16</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3064.09</v>
+      </c>
+      <c r="K40" t="n">
+        <v>627.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7018.07</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1906.41</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6221.41</v>
+      </c>
+      <c r="O40" t="n">
+        <v>212.56</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>732.79</v>
+        <v>410.85</v>
       </c>
       <c r="C41" t="n">
-        <v>14870.71</v>
+        <v>8953.83</v>
       </c>
       <c r="D41" t="n">
-        <v>2792.35</v>
+        <v>1713.43</v>
       </c>
       <c r="E41" t="n">
-        <v>32619.95</v>
+        <v>19698.23</v>
       </c>
       <c r="F41" t="n">
-        <v>9074.33</v>
+        <v>5248.41</v>
       </c>
       <c r="G41" t="n">
-        <v>29094.81</v>
+        <v>17573.95</v>
       </c>
       <c r="H41" t="n">
-        <v>969.39</v>
+        <v>613.13</v>
+      </c>
+      <c r="I41" t="n">
+        <v>241.69</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5889.74</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1085.93</v>
+      </c>
+      <c r="L41" t="n">
+        <v>12680.16</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3342</v>
+      </c>
+      <c r="N41" t="n">
+        <v>11352.54</v>
+      </c>
+      <c r="O41" t="n">
+        <v>400.57</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>410.85</v>
+        <v>732.79</v>
       </c>
       <c r="C42" t="n">
-        <v>8953.83</v>
+        <v>14870.71</v>
       </c>
       <c r="D42" t="n">
-        <v>1713.43</v>
+        <v>2792.35</v>
       </c>
       <c r="E42" t="n">
-        <v>19698.23</v>
+        <v>32619.95</v>
       </c>
       <c r="F42" t="n">
-        <v>5248.41</v>
+        <v>9074.33</v>
       </c>
       <c r="G42" t="n">
-        <v>17573.95</v>
+        <v>29094.81</v>
       </c>
       <c r="H42" t="n">
-        <v>613.13</v>
+        <v>969.39</v>
+      </c>
+      <c r="I42" t="n">
+        <v>321.9399999999999</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5916.879999999999</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1078.92</v>
+      </c>
+      <c r="L42" t="n">
+        <v>12921.72</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3825.92</v>
+      </c>
+      <c r="N42" t="n">
+        <v>11520.86</v>
+      </c>
+      <c r="O42" t="n">
+        <v>356.26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1637,11 +2525,32 @@
       <c r="H43" t="n">
         <v>1523.43</v>
       </c>
+      <c r="I43" t="n">
+        <v>446.1500000000001</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6952.450000000001</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1563.93</v>
+      </c>
+      <c r="L43" t="n">
+        <v>16269.34</v>
+      </c>
+      <c r="M43" t="n">
+        <v>11302.66</v>
+      </c>
+      <c r="N43" t="n">
+        <v>14259.26</v>
+      </c>
+      <c r="O43" t="n">
+        <v>554.0400000000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1665,67 +2574,130 @@
       <c r="H44" t="n">
         <v>243.45</v>
       </c>
+      <c r="I44" t="n">
+        <v>216.21</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3751.66</v>
+      </c>
+      <c r="K44" t="n">
+        <v>705.59</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8044.86</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2094.71</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7123.07</v>
+      </c>
+      <c r="O44" t="n">
+        <v>243.45</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>802.02</v>
+        <v>516.97</v>
       </c>
       <c r="C45" t="n">
-        <v>16676.71</v>
+        <v>10315.95</v>
       </c>
       <c r="D45" t="n">
-        <v>2982.32</v>
+        <v>1944.3</v>
       </c>
       <c r="E45" t="n">
-        <v>35895.91</v>
+        <v>22112.52</v>
       </c>
       <c r="F45" t="n">
-        <v>10057.18</v>
+        <v>6085.13</v>
       </c>
       <c r="G45" t="n">
-        <v>32111.57</v>
+        <v>19651.25</v>
       </c>
       <c r="H45" t="n">
-        <v>1035.5</v>
+        <v>656.3099999999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>300.76</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6564.290000000001</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1238.71</v>
+      </c>
+      <c r="L45" t="n">
+        <v>14067.66</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3990.42</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12528.18</v>
+      </c>
+      <c r="O45" t="n">
+        <v>412.86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>516.97</v>
+        <v>802.02</v>
       </c>
       <c r="C46" t="n">
-        <v>10315.95</v>
+        <v>16676.71</v>
       </c>
       <c r="D46" t="n">
-        <v>1944.3</v>
+        <v>2982.32</v>
       </c>
       <c r="E46" t="n">
-        <v>22112.52</v>
+        <v>35895.91</v>
       </c>
       <c r="F46" t="n">
-        <v>6085.13</v>
+        <v>10057.18</v>
       </c>
       <c r="G46" t="n">
-        <v>19651.25</v>
+        <v>32111.57</v>
       </c>
       <c r="H46" t="n">
-        <v>656.3099999999999</v>
+        <v>1035.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>285.05</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6360.759999999998</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1038.02</v>
+      </c>
+      <c r="L46" t="n">
+        <v>13783.39</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3972.05</v>
+      </c>
+      <c r="N46" t="n">
+        <v>12460.32</v>
+      </c>
+      <c r="O46" t="n">
+        <v>379.1900000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1749,11 +2721,32 @@
       <c r="H47" t="n">
         <v>1515.65</v>
       </c>
+      <c r="I47" t="n">
+        <v>462.8199999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7711.690000000002</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1604.92</v>
+      </c>
+      <c r="L47" t="n">
+        <v>16892.56</v>
+      </c>
+      <c r="M47" t="n">
+        <v>12348.09</v>
+      </c>
+      <c r="N47" t="n">
+        <v>14824.82</v>
+      </c>
+      <c r="O47" t="n">
+        <v>480.1500000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1777,67 +2770,130 @@
       <c r="H48" t="n">
         <v>230.37</v>
       </c>
+      <c r="I48" t="n">
+        <v>217.21</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4126.42</v>
+      </c>
+      <c r="K48" t="n">
+        <v>751.12</v>
+      </c>
+      <c r="L48" t="n">
+        <v>8719.98</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2363.15</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7751.65</v>
+      </c>
+      <c r="O48" t="n">
+        <v>230.37</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>773.6799999999999</v>
+        <v>472.36</v>
       </c>
       <c r="C49" t="n">
-        <v>17556.27</v>
+        <v>10801.15</v>
       </c>
       <c r="D49" t="n">
-        <v>2948.95</v>
+        <v>1825.21</v>
       </c>
       <c r="E49" t="n">
-        <v>36874.51</v>
+        <v>22698.25</v>
       </c>
       <c r="F49" t="n">
-        <v>11394.13</v>
+        <v>6407.9</v>
       </c>
       <c r="G49" t="n">
-        <v>33151.87</v>
+        <v>20400.67</v>
       </c>
       <c r="H49" t="n">
-        <v>1026.81</v>
+        <v>615.1799999999999</v>
+      </c>
+      <c r="I49" t="n">
+        <v>255.15</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6674.73</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1074.09</v>
+      </c>
+      <c r="L49" t="n">
+        <v>13978.27</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4044.75</v>
+      </c>
+      <c r="N49" t="n">
+        <v>12649.02</v>
+      </c>
+      <c r="O49" t="n">
+        <v>384.8099999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>472.36</v>
+        <v>773.6799999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>10801.15</v>
+        <v>17556.27</v>
       </c>
       <c r="D50" t="n">
-        <v>1825.21</v>
+        <v>2948.95</v>
       </c>
       <c r="E50" t="n">
-        <v>22698.25</v>
+        <v>36874.51</v>
       </c>
       <c r="F50" t="n">
-        <v>6407.9</v>
+        <v>11394.13</v>
       </c>
       <c r="G50" t="n">
-        <v>20400.67</v>
+        <v>33151.87</v>
       </c>
       <c r="H50" t="n">
-        <v>615.1799999999999</v>
+        <v>1026.81</v>
+      </c>
+      <c r="I50" t="n">
+        <v>301.3199999999999</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6755.120000000001</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1123.74</v>
+      </c>
+      <c r="L50" t="n">
+        <v>14176.26</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4986.23</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12751.2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>411.63</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1861,11 +2917,32 @@
       <c r="H51" t="n">
         <v>1648.28</v>
       </c>
+      <c r="I51" t="n">
+        <v>608.5200000000001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>8213.84</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1704.54</v>
+      </c>
+      <c r="L51" t="n">
+        <v>18000.41</v>
+      </c>
+      <c r="M51" t="n">
+        <v>13477.69</v>
+      </c>
+      <c r="N51" t="n">
+        <v>15687.36</v>
+      </c>
+      <c r="O51" t="n">
+        <v>621.47</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1889,67 +2966,130 @@
       <c r="H52" t="n">
         <v>268.26</v>
       </c>
+      <c r="I52" t="n">
+        <v>201.69</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4371.26</v>
+      </c>
+      <c r="K52" t="n">
+        <v>815.4400000000001</v>
+      </c>
+      <c r="L52" t="n">
+        <v>9090.24</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2816.8</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8073.1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>268.26</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>895.0299999999989</v>
+        <v>573.1900000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>19176.9</v>
+        <v>11807.36</v>
       </c>
       <c r="D53" t="n">
-        <v>3153.78999999999</v>
+        <v>1979.61</v>
       </c>
       <c r="E53" t="n">
-        <v>39704.45</v>
+        <v>24544.55</v>
       </c>
       <c r="F53" t="n">
-        <v>12126.53</v>
+        <v>7523.51</v>
       </c>
       <c r="G53" t="n">
-        <v>35655.62</v>
+        <v>21991.74</v>
       </c>
       <c r="H53" t="n">
-        <v>1135.76999999999</v>
+        <v>761</v>
+      </c>
+      <c r="I53" t="n">
+        <v>371.5000000000001</v>
+      </c>
+      <c r="J53" t="n">
+        <v>7436.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1164.17</v>
+      </c>
+      <c r="L53" t="n">
+        <v>15454.31</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4706.71</v>
+      </c>
+      <c r="N53" t="n">
+        <v>13918.64</v>
+      </c>
+      <c r="O53" t="n">
+        <v>492.74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>573.1900000000001</v>
+        <v>895.0299999999989</v>
       </c>
       <c r="C54" t="n">
-        <v>11807.36</v>
+        <v>19176.9</v>
       </c>
       <c r="D54" t="n">
-        <v>1979.61</v>
+        <v>3153.78999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>24544.55</v>
+        <v>39704.45</v>
       </c>
       <c r="F54" t="n">
-        <v>7523.51</v>
+        <v>12126.53</v>
       </c>
       <c r="G54" t="n">
-        <v>21991.74</v>
+        <v>35655.62</v>
       </c>
       <c r="H54" t="n">
-        <v>761</v>
+        <v>1135.76999999999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>321.8399999999989</v>
+      </c>
+      <c r="J54" t="n">
+        <v>7369.540000000001</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1174.17999999999</v>
+      </c>
+      <c r="L54" t="n">
+        <v>15159.9</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4603.02</v>
+      </c>
+      <c r="N54" t="n">
+        <v>13663.88</v>
+      </c>
+      <c r="O54" t="n">
+        <v>374.76999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1973,11 +3113,32 @@
       <c r="H55" t="n">
         <v>1858.05</v>
       </c>
+      <c r="I55" t="n">
+        <v>528.0900000000009</v>
+      </c>
+      <c r="J55" t="n">
+        <v>9441.889999999999</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1628.94000000001</v>
+      </c>
+      <c r="L55" t="n">
+        <v>19813.44</v>
+      </c>
+      <c r="M55" t="n">
+        <v>13829.93</v>
+      </c>
+      <c r="N55" t="n">
+        <v>17656.42</v>
+      </c>
+      <c r="O55" t="n">
+        <v>722.28000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2001,67 +3162,130 @@
       <c r="H56" t="n">
         <v>292.07</v>
       </c>
+      <c r="I56" t="n">
+        <v>258.99</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4793.63</v>
+      </c>
+      <c r="K56" t="n">
+        <v>870.48</v>
+      </c>
+      <c r="L56" t="n">
+        <v>10137.17</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3131.55</v>
+      </c>
+      <c r="N56" t="n">
+        <v>9007.700000000001</v>
+      </c>
+      <c r="O56" t="n">
+        <v>292.07</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1096.95</v>
+        <v>696.02</v>
       </c>
       <c r="C57" t="n">
-        <v>22266.31</v>
+        <v>13991.78</v>
       </c>
       <c r="D57" t="n">
-        <v>3604.47</v>
+        <v>2258.05</v>
       </c>
       <c r="E57" t="n">
-        <v>45302.13</v>
+        <v>28463.61</v>
       </c>
       <c r="F57" t="n">
-        <v>12892.56</v>
+        <v>7762.98</v>
       </c>
       <c r="G57" t="n">
-        <v>40600.71</v>
+        <v>25509.54</v>
       </c>
       <c r="H57" t="n">
-        <v>1169.19</v>
+        <v>802.8200000000001</v>
+      </c>
+      <c r="I57" t="n">
+        <v>437.03</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9198.150000000001</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1387.57</v>
+      </c>
+      <c r="L57" t="n">
+        <v>18326.44</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4631.429999999999</v>
+      </c>
+      <c r="N57" t="n">
+        <v>16501.84</v>
+      </c>
+      <c r="O57" t="n">
+        <v>510.7500000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>696.02</v>
+        <v>1096.95</v>
       </c>
       <c r="C58" t="n">
-        <v>13991.78</v>
+        <v>22266.31</v>
       </c>
       <c r="D58" t="n">
-        <v>2258.05</v>
+        <v>3604.47</v>
       </c>
       <c r="E58" t="n">
-        <v>28463.61</v>
+        <v>45302.13</v>
       </c>
       <c r="F58" t="n">
-        <v>7762.98</v>
+        <v>12892.56</v>
       </c>
       <c r="G58" t="n">
-        <v>25509.54</v>
+        <v>40600.71</v>
       </c>
       <c r="H58" t="n">
-        <v>802.8200000000001</v>
+        <v>1169.19</v>
+      </c>
+      <c r="I58" t="n">
+        <v>400.9300000000001</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8274.530000000001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1346.42</v>
+      </c>
+      <c r="L58" t="n">
+        <v>16838.52</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5129.58</v>
+      </c>
+      <c r="N58" t="n">
+        <v>15091.17</v>
+      </c>
+      <c r="O58" t="n">
+        <v>366.37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2085,11 +3309,32 @@
       <c r="H59" t="n">
         <v>1787.12</v>
       </c>
+      <c r="I59" t="n">
+        <v>593.1499999999999</v>
+      </c>
+      <c r="J59" t="n">
+        <v>10442.38</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1810.82</v>
+      </c>
+      <c r="L59" t="n">
+        <v>22454.26</v>
+      </c>
+      <c r="M59" t="n">
+        <v>13779.96</v>
+      </c>
+      <c r="N59" t="n">
+        <v>20050.29</v>
+      </c>
+      <c r="O59" t="n">
+        <v>617.9299999999998</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2113,67 +3358,130 @@
       <c r="H60" t="n">
         <v>328</v>
       </c>
+      <c r="I60" t="n">
+        <v>301.51</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5599.56</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1002.21</v>
+      </c>
+      <c r="L60" t="n">
+        <v>11681.58</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3218.73</v>
+      </c>
+      <c r="N60" t="n">
+        <v>10377.86</v>
+      </c>
+      <c r="O60" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1255.37</v>
+        <v>819.1900000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>24572.27</v>
+        <v>15477.97</v>
       </c>
       <c r="D61" t="n">
-        <v>3741.39</v>
+        <v>2380.86</v>
       </c>
       <c r="E61" t="n">
-        <v>49911.5</v>
+        <v>31212.75</v>
       </c>
       <c r="F61" t="n">
-        <v>12674.68</v>
+        <v>7605.28</v>
       </c>
       <c r="G61" t="n">
-        <v>44914.75</v>
+        <v>28012.69</v>
       </c>
       <c r="H61" t="n">
-        <v>1324.86</v>
+        <v>774.01</v>
+      </c>
+      <c r="I61" t="n">
+        <v>517.6800000000001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>9878.41</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1378.65</v>
+      </c>
+      <c r="L61" t="n">
+        <v>19531.17</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4386.549999999999</v>
+      </c>
+      <c r="N61" t="n">
+        <v>17634.83</v>
+      </c>
+      <c r="O61" t="n">
+        <v>446.01</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>819.1900000000001</v>
+        <v>1255.37</v>
       </c>
       <c r="C62" t="n">
-        <v>15477.97</v>
+        <v>24572.27</v>
       </c>
       <c r="D62" t="n">
-        <v>2380.86</v>
+        <v>3741.39</v>
       </c>
       <c r="E62" t="n">
-        <v>31212.75</v>
+        <v>49911.5</v>
       </c>
       <c r="F62" t="n">
-        <v>7605.28</v>
+        <v>12674.68</v>
       </c>
       <c r="G62" t="n">
-        <v>28012.69</v>
+        <v>44914.75</v>
       </c>
       <c r="H62" t="n">
-        <v>774.01</v>
+        <v>1324.86</v>
+      </c>
+      <c r="I62" t="n">
+        <v>436.1799999999998</v>
+      </c>
+      <c r="J62" t="n">
+        <v>9094.300000000001</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1360.53</v>
+      </c>
+      <c r="L62" t="n">
+        <v>18698.75</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5069.400000000001</v>
+      </c>
+      <c r="N62" t="n">
+        <v>16902.06</v>
+      </c>
+      <c r="O62" t="n">
+        <v>550.8499999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2197,11 +3505,32 @@
       <c r="H63" t="n">
         <v>1963.12</v>
       </c>
+      <c r="I63" t="n">
+        <v>644.46</v>
+      </c>
+      <c r="J63" t="n">
+        <v>12081.47</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2116.47</v>
+      </c>
+      <c r="L63" t="n">
+        <v>26038.10000000001</v>
+      </c>
+      <c r="M63" t="n">
+        <v>14697.86</v>
+      </c>
+      <c r="N63" t="n">
+        <v>23277.16</v>
+      </c>
+      <c r="O63" t="n">
+        <v>638.26</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2225,67 +3554,130 @@
       <c r="H64" t="n">
         <v>305.48</v>
       </c>
+      <c r="I64" t="n">
+        <v>330.35</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6553.27</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1080.09</v>
+      </c>
+      <c r="L64" t="n">
+        <v>13572.25</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3561.29</v>
+      </c>
+      <c r="N64" t="n">
+        <v>12161.81</v>
+      </c>
+      <c r="O64" t="n">
+        <v>305.48</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1312.83</v>
+        <v>884.89</v>
       </c>
       <c r="C65" t="n">
-        <v>29015.01</v>
+        <v>17941.69</v>
       </c>
       <c r="D65" t="n">
-        <v>4319.06</v>
+        <v>2772.52</v>
       </c>
       <c r="E65" t="n">
-        <v>58233.46</v>
+        <v>36308.37</v>
       </c>
       <c r="F65" t="n">
-        <v>15914.63</v>
+        <v>9003.32</v>
       </c>
       <c r="G65" t="n">
-        <v>52601.57</v>
+        <v>32650.95</v>
       </c>
       <c r="H65" t="n">
-        <v>1303.37</v>
+        <v>956.37</v>
+      </c>
+      <c r="I65" t="n">
+        <v>554.54</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11388.42</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1692.43</v>
+      </c>
+      <c r="L65" t="n">
+        <v>22736.12</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5442.03</v>
+      </c>
+      <c r="N65" t="n">
+        <v>20489.14</v>
+      </c>
+      <c r="O65" t="n">
+        <v>650.89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>884.89</v>
+        <v>1312.83</v>
       </c>
       <c r="C66" t="n">
-        <v>17941.69</v>
+        <v>29015.01</v>
       </c>
       <c r="D66" t="n">
-        <v>2772.52</v>
+        <v>4319.06</v>
       </c>
       <c r="E66" t="n">
-        <v>36308.37</v>
+        <v>58233.46</v>
       </c>
       <c r="F66" t="n">
-        <v>9003.32</v>
+        <v>15914.63</v>
       </c>
       <c r="G66" t="n">
-        <v>32650.95</v>
+        <v>52601.57</v>
       </c>
       <c r="H66" t="n">
-        <v>956.37</v>
+        <v>1303.37</v>
+      </c>
+      <c r="I66" t="n">
+        <v>427.9399999999999</v>
+      </c>
+      <c r="J66" t="n">
+        <v>11073.32</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1546.54</v>
+      </c>
+      <c r="L66" t="n">
+        <v>21925.09</v>
+      </c>
+      <c r="M66" t="n">
+        <v>6911.309999999999</v>
+      </c>
+      <c r="N66" t="n">
+        <v>19950.62</v>
+      </c>
+      <c r="O66" t="n">
+        <v>346.9999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2309,11 +3701,32 @@
       <c r="H67" t="n">
         <v>1887.42</v>
       </c>
+      <c r="I67" t="n">
+        <v>808.4099999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>12995.90000000001</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2043.41</v>
+      </c>
+      <c r="L67" t="n">
+        <v>27133.63</v>
+      </c>
+      <c r="M67" t="n">
+        <v>15682.32</v>
+      </c>
+      <c r="N67" t="n">
+        <v>24281.81</v>
+      </c>
+      <c r="O67" t="n">
+        <v>584.0500000000002</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2337,67 +3750,130 @@
       <c r="H68" t="n">
         <v>251.84</v>
       </c>
+      <c r="I68" t="n">
+        <v>323.88</v>
+      </c>
+      <c r="J68" t="n">
+        <v>6022.97</v>
+      </c>
+      <c r="K68" t="n">
+        <v>957.91</v>
+      </c>
+      <c r="L68" t="n">
+        <v>11964.1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2792.25</v>
+      </c>
+      <c r="N68" t="n">
+        <v>10682.31</v>
+      </c>
+      <c r="O68" t="n">
+        <v>251.84</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1619.05</v>
+        <v>1061.93</v>
       </c>
       <c r="C69" t="n">
-        <v>32307.69</v>
+        <v>19402.24</v>
       </c>
       <c r="D69" t="n">
-        <v>4437.82</v>
+        <v>2810.17</v>
       </c>
       <c r="E69" t="n">
-        <v>62914.82</v>
+        <v>37809.95</v>
       </c>
       <c r="F69" t="n">
-        <v>15223.34</v>
+        <v>8422.370000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>56857.95</v>
+        <v>33937.85</v>
       </c>
       <c r="H69" t="n">
-        <v>1327.17</v>
+        <v>732.39</v>
+      </c>
+      <c r="I69" t="n">
+        <v>738.0500000000001</v>
+      </c>
+      <c r="J69" t="n">
+        <v>13379.27</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1852.26</v>
+      </c>
+      <c r="L69" t="n">
+        <v>25845.85</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5630.120000000001</v>
+      </c>
+      <c r="N69" t="n">
+        <v>23255.54</v>
+      </c>
+      <c r="O69" t="n">
+        <v>480.55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1061.93</v>
+        <v>1619.05</v>
       </c>
       <c r="C70" t="n">
-        <v>19402.24</v>
+        <v>32307.69</v>
       </c>
       <c r="D70" t="n">
-        <v>2810.17</v>
+        <v>4437.82</v>
       </c>
       <c r="E70" t="n">
-        <v>37809.95</v>
+        <v>62914.82</v>
       </c>
       <c r="F70" t="n">
-        <v>8422.370000000001</v>
+        <v>15223.34</v>
       </c>
       <c r="G70" t="n">
-        <v>33937.85</v>
+        <v>56857.95</v>
       </c>
       <c r="H70" t="n">
-        <v>732.39</v>
+        <v>1327.17</v>
+      </c>
+      <c r="I70" t="n">
+        <v>557.1199999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>12905.45</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1627.65</v>
+      </c>
+      <c r="L70" t="n">
+        <v>25104.87</v>
+      </c>
+      <c r="M70" t="n">
+        <v>6800.969999999999</v>
+      </c>
+      <c r="N70" t="n">
+        <v>22920.1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>594.7800000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2421,11 +3897,32 @@
       <c r="H71" t="n">
         <v>1995.17</v>
       </c>
+      <c r="I71" t="n">
+        <v>904.51</v>
+      </c>
+      <c r="J71" t="n">
+        <v>15783.76</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2526.75</v>
+      </c>
+      <c r="L71" t="n">
+        <v>32991.87</v>
+      </c>
+      <c r="M71" t="n">
+        <v>17477.88</v>
+      </c>
+      <c r="N71" t="n">
+        <v>29560.62000000001</v>
+      </c>
+      <c r="O71" t="n">
+        <v>668</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2449,67 +3946,130 @@
       <c r="H72" t="n">
         <v>378.65</v>
       </c>
+      <c r="I72" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="J72" t="n">
+        <v>8324.75</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1241.3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>16720</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4544.02</v>
+      </c>
+      <c r="N72" t="n">
+        <v>15082.1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>378.65</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1725.54</v>
+        <v>1175.57</v>
       </c>
       <c r="C73" t="n">
-        <v>37863.96</v>
+        <v>23454.05</v>
       </c>
       <c r="D73" t="n">
-        <v>5182.61</v>
+        <v>3191.74</v>
       </c>
       <c r="E73" t="n">
-        <v>74470.89</v>
+        <v>46131.63</v>
       </c>
       <c r="F73" t="n">
-        <v>20450.74</v>
+        <v>11741.09</v>
       </c>
       <c r="G73" t="n">
-        <v>67562.74000000001</v>
+        <v>41764.31</v>
       </c>
       <c r="H73" t="n">
-        <v>1567.66</v>
+        <v>998.33</v>
+      </c>
+      <c r="I73" t="n">
+        <v>778.9699999999999</v>
+      </c>
+      <c r="J73" t="n">
+        <v>15129.3</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1950.44</v>
+      </c>
+      <c r="L73" t="n">
+        <v>29411.63</v>
+      </c>
+      <c r="M73" t="n">
+        <v>7197.07</v>
+      </c>
+      <c r="N73" t="n">
+        <v>26682.21</v>
+      </c>
+      <c r="O73" t="n">
+        <v>619.6800000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1175.57</v>
+        <v>1725.54</v>
       </c>
       <c r="C74" t="n">
-        <v>23454.05</v>
+        <v>37863.96</v>
       </c>
       <c r="D74" t="n">
-        <v>3191.74</v>
+        <v>5182.61</v>
       </c>
       <c r="E74" t="n">
-        <v>46131.63</v>
+        <v>74470.89</v>
       </c>
       <c r="F74" t="n">
-        <v>11741.09</v>
+        <v>20450.74</v>
       </c>
       <c r="G74" t="n">
-        <v>41764.31</v>
+        <v>67562.74000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>998.33</v>
+        <v>1567.66</v>
+      </c>
+      <c r="I74" t="n">
+        <v>549.97</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14409.91</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1990.87</v>
+      </c>
+      <c r="L74" t="n">
+        <v>28339.26</v>
+      </c>
+      <c r="M74" t="n">
+        <v>8709.650000000001</v>
+      </c>
+      <c r="N74" t="n">
+        <v>25798.43000000001</v>
+      </c>
+      <c r="O74" t="n">
+        <v>569.33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2532,6 +4092,27 @@
       </c>
       <c r="H75" t="n">
         <v>2321.47</v>
+      </c>
+      <c r="I75" t="n">
+        <v>898.0999999999999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>17159.25</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2682.77</v>
+      </c>
+      <c r="L75" t="n">
+        <v>35995</v>
+      </c>
+      <c r="M75" t="n">
+        <v>20349.25</v>
+      </c>
+      <c r="N75" t="n">
+        <v>32414.12999999999</v>
+      </c>
+      <c r="O75" t="n">
+        <v>753.8099999999997</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业建筑业总产值.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业建筑业总产值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,41 +469,6 @@
           <t>国有及国有控股建筑业企业装饰装修产值_累计值</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业其他产值</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业在外省完成的产值</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业安装工程产值</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业建筑业总产值</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业建筑业竣工产值</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业建筑工程产值</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业装饰装修产值</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -528,23 +493,6 @@
         <v>2990.16</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>97.65000000000001</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>436.25</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3524.06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1308.19</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2990.16</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,23 +517,6 @@
         <v>7830.39</v>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>209.02</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>675.9100000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5725.15</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4791.950000000001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4840.23</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -614,124 +545,61 @@
       <c r="H4" t="n">
         <v>65.86</v>
       </c>
-      <c r="I4" t="n">
-        <v>60.41</v>
-      </c>
-      <c r="J4" t="n">
-        <v>447.45</v>
-      </c>
-      <c r="K4" t="n">
-        <v>198.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1601</v>
-      </c>
-      <c r="M4" t="n">
-        <v>535.27</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1342.09</v>
-      </c>
-      <c r="O4" t="n">
-        <v>65.86</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>139.87</v>
+        <v>239.92</v>
       </c>
       <c r="C5" t="n">
-        <v>1227.37</v>
+        <v>2141.72</v>
       </c>
       <c r="D5" t="n">
-        <v>502.24</v>
+        <v>826.04</v>
       </c>
       <c r="E5" t="n">
-        <v>4236.64</v>
+        <v>7078.39</v>
       </c>
       <c r="F5" t="n">
-        <v>1468.01</v>
+        <v>2840.59</v>
       </c>
       <c r="G5" t="n">
-        <v>3594.53</v>
+        <v>6012.43</v>
       </c>
       <c r="H5" t="n">
-        <v>167.85</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79.46000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>779.9199999999998</v>
-      </c>
-      <c r="K5" t="n">
-        <v>303.74</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2635.64</v>
-      </c>
-      <c r="M5" t="n">
-        <v>932.74</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2252.440000000001</v>
-      </c>
-      <c r="O5" t="n">
-        <v>101.99</v>
+        <v>279.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239.92</v>
+        <v>139.87</v>
       </c>
       <c r="C6" t="n">
-        <v>2141.72</v>
+        <v>1227.37</v>
       </c>
       <c r="D6" t="n">
-        <v>826.04</v>
+        <v>502.24</v>
       </c>
       <c r="E6" t="n">
-        <v>7078.39</v>
+        <v>4236.64</v>
       </c>
       <c r="F6" t="n">
-        <v>2840.59</v>
+        <v>1468.01</v>
       </c>
       <c r="G6" t="n">
-        <v>6012.43</v>
+        <v>3594.53</v>
       </c>
       <c r="H6" t="n">
-        <v>279.42</v>
-      </c>
-      <c r="I6" t="n">
-        <v>100.05</v>
-      </c>
-      <c r="J6" t="n">
-        <v>914.3499999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>323.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2841.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1372.58</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2417.9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>111.57</v>
+        <v>167.85</v>
       </c>
     </row>
     <row r="7">
@@ -761,27 +629,6 @@
       <c r="H7" t="n">
         <v>425.36</v>
       </c>
-      <c r="I7" t="n">
-        <v>203.27</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1234.15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>545.52</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3930.31</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3865.62</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3181.52</v>
-      </c>
-      <c r="O7" t="n">
-        <v>145.94</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -810,124 +657,61 @@
       <c r="H8" t="n">
         <v>62.57</v>
       </c>
-      <c r="I8" t="n">
-        <v>57.35</v>
-      </c>
-      <c r="J8" t="n">
-        <v>561.97</v>
-      </c>
-      <c r="K8" t="n">
-        <v>254.84</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1772.61</v>
-      </c>
-      <c r="M8" t="n">
-        <v>582.26</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1460.42</v>
-      </c>
-      <c r="O8" t="n">
-        <v>62.57</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>146.89</v>
+        <v>234.14</v>
       </c>
       <c r="C9" t="n">
-        <v>1657.71</v>
+        <v>2761.98</v>
       </c>
       <c r="D9" t="n">
-        <v>627.21</v>
+        <v>1046.59</v>
       </c>
       <c r="E9" t="n">
-        <v>4856.25</v>
+        <v>8177.99</v>
       </c>
       <c r="F9" t="n">
-        <v>1636.01</v>
+        <v>3096.02</v>
       </c>
       <c r="G9" t="n">
-        <v>4082.15</v>
+        <v>6897.26</v>
       </c>
       <c r="H9" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>89.53999999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1095.74</v>
-      </c>
-      <c r="K9" t="n">
-        <v>372.37</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3083.64</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1053.75</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2621.73</v>
-      </c>
-      <c r="O9" t="n">
-        <v>110.93</v>
+        <v>300.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.14</v>
+        <v>146.89</v>
       </c>
       <c r="C10" t="n">
-        <v>2761.98</v>
+        <v>1657.71</v>
       </c>
       <c r="D10" t="n">
-        <v>1046.59</v>
+        <v>627.21</v>
       </c>
       <c r="E10" t="n">
-        <v>8177.99</v>
+        <v>4856.25</v>
       </c>
       <c r="F10" t="n">
-        <v>3096.02</v>
+        <v>1636.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6897.26</v>
+        <v>4082.15</v>
       </c>
       <c r="H10" t="n">
-        <v>300.43</v>
-      </c>
-      <c r="I10" t="n">
-        <v>87.25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1104.27</v>
-      </c>
-      <c r="K10" t="n">
-        <v>419.3799999999999</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3321.74</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1460.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2815.11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>126.93</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="11">
@@ -957,27 +741,6 @@
       <c r="H11" t="n">
         <v>529.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>216.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1654.53</v>
-      </c>
-      <c r="K11" t="n">
-        <v>657.0500000000002</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5322.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4316.549999999999</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4448.57</v>
-      </c>
-      <c r="O11" t="n">
-        <v>229.17</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1006,124 +769,61 @@
       <c r="H12" t="n">
         <v>75.17</v>
       </c>
-      <c r="I12" t="n">
-        <v>77.45999999999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>672.48</v>
-      </c>
-      <c r="K12" t="n">
-        <v>273.66</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2032.43</v>
-      </c>
-      <c r="M12" t="n">
-        <v>650.13</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1681.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>75.17</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>190.53</v>
+        <v>297.96</v>
       </c>
       <c r="C13" t="n">
-        <v>2005.95</v>
+        <v>3531.37</v>
       </c>
       <c r="D13" t="n">
-        <v>714.1799999999999</v>
+        <v>1177.45</v>
       </c>
       <c r="E13" t="n">
-        <v>5796.18</v>
+        <v>9931.799999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>1838.09</v>
+        <v>3583.06</v>
       </c>
       <c r="G13" t="n">
-        <v>4891.48</v>
+        <v>8456.4</v>
       </c>
       <c r="H13" t="n">
-        <v>188.81</v>
-      </c>
-      <c r="I13" t="n">
-        <v>113.07</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1333.47</v>
-      </c>
-      <c r="K13" t="n">
-        <v>440.5199999999999</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3763.75</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1187.96</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3210.179999999999</v>
-      </c>
-      <c r="O13" t="n">
-        <v>113.64</v>
+        <v>338.65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>297.96</v>
+        <v>190.53</v>
       </c>
       <c r="C14" t="n">
-        <v>3531.37</v>
+        <v>2005.95</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.45</v>
+        <v>714.1799999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>9931.799999999999</v>
+        <v>5796.18</v>
       </c>
       <c r="F14" t="n">
-        <v>3583.06</v>
+        <v>1838.09</v>
       </c>
       <c r="G14" t="n">
-        <v>8456.4</v>
+        <v>4891.48</v>
       </c>
       <c r="H14" t="n">
-        <v>338.65</v>
-      </c>
-      <c r="I14" t="n">
-        <v>107.43</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1525.42</v>
-      </c>
-      <c r="K14" t="n">
-        <v>463.2700000000001</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4135.619999999999</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1744.97</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3564.92</v>
-      </c>
-      <c r="O14" t="n">
-        <v>149.84</v>
+        <v>188.81</v>
       </c>
     </row>
     <row r="15">
@@ -1153,27 +853,6 @@
       <c r="H15" t="n">
         <v>611.9</v>
       </c>
-      <c r="I15" t="n">
-        <v>221.82</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1914.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>622.47</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5650.6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5017.33</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4806.309999999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>273.25</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1202,124 +881,61 @@
       <c r="H16" t="n">
         <v>82.34</v>
       </c>
-      <c r="I16" t="n">
-        <v>67.27</v>
-      </c>
-      <c r="J16" t="n">
-        <v>926.04</v>
-      </c>
-      <c r="K16" t="n">
-        <v>316.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2416.54</v>
-      </c>
-      <c r="M16" t="n">
-        <v>730.67</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2032.37</v>
-      </c>
-      <c r="O16" t="n">
-        <v>82.34</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.25</v>
+        <v>283.78</v>
       </c>
       <c r="C17" t="n">
-        <v>2534.26</v>
+        <v>4169.51</v>
       </c>
       <c r="D17" t="n">
-        <v>822.54</v>
+        <v>1363.17</v>
       </c>
       <c r="E17" t="n">
-        <v>6803.56</v>
+        <v>11309</v>
       </c>
       <c r="F17" t="n">
-        <v>2052.29</v>
+        <v>3819.91</v>
       </c>
       <c r="G17" t="n">
-        <v>5810.77</v>
+        <v>9662.049999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>222.22</v>
-      </c>
-      <c r="I17" t="n">
-        <v>102.98</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1608.22</v>
-      </c>
-      <c r="K17" t="n">
-        <v>505.64</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4387.02</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1321.62</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3778.400000000001</v>
-      </c>
-      <c r="O17" t="n">
-        <v>139.88</v>
+        <v>377.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>283.78</v>
+        <v>170.25</v>
       </c>
       <c r="C18" t="n">
-        <v>4169.51</v>
+        <v>2534.26</v>
       </c>
       <c r="D18" t="n">
-        <v>1363.17</v>
+        <v>822.54</v>
       </c>
       <c r="E18" t="n">
-        <v>11309</v>
+        <v>6803.56</v>
       </c>
       <c r="F18" t="n">
-        <v>3819.91</v>
+        <v>2052.29</v>
       </c>
       <c r="G18" t="n">
-        <v>9662.049999999999</v>
+        <v>5810.77</v>
       </c>
       <c r="H18" t="n">
-        <v>377.33</v>
-      </c>
-      <c r="I18" t="n">
-        <v>113.53</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1635.25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>540.6300000000001</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4505.44</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1767.62</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3851.279999999999</v>
-      </c>
-      <c r="O18" t="n">
-        <v>155.11</v>
+        <v>222.22</v>
       </c>
     </row>
     <row r="19">
@@ -1349,27 +965,6 @@
       <c r="H19" t="n">
         <v>593.48</v>
       </c>
-      <c r="I19" t="n">
-        <v>152.64</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2256.16</v>
-      </c>
-      <c r="K19" t="n">
-        <v>757.4499999999998</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6475.830000000002</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5173.860000000001</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5565.740000000002</v>
-      </c>
-      <c r="O19" t="n">
-        <v>216.15</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1398,124 +993,61 @@
       <c r="H20" t="n">
         <v>103.02</v>
       </c>
-      <c r="I20" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1132.44</v>
-      </c>
-      <c r="K20" t="n">
-        <v>352.08</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2939.35</v>
-      </c>
-      <c r="M20" t="n">
-        <v>846.9299999999999</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2515.85</v>
-      </c>
-      <c r="O20" t="n">
-        <v>103.02</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>181.82</v>
+        <v>311.29</v>
       </c>
       <c r="C21" t="n">
-        <v>3267.15</v>
+        <v>5344.79</v>
       </c>
       <c r="D21" t="n">
-        <v>950.2</v>
+        <v>1593.65</v>
       </c>
       <c r="E21" t="n">
-        <v>8476.91</v>
+        <v>13990.24</v>
       </c>
       <c r="F21" t="n">
-        <v>2431.87</v>
+        <v>4363.14</v>
       </c>
       <c r="G21" t="n">
-        <v>7344.88</v>
+        <v>12085.31</v>
       </c>
       <c r="H21" t="n">
-        <v>292.47</v>
-      </c>
-      <c r="I21" t="n">
-        <v>110.39</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2134.71</v>
-      </c>
-      <c r="K21" t="n">
-        <v>598.1200000000001</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5537.559999999999</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1584.94</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4829.030000000001</v>
-      </c>
-      <c r="O21" t="n">
-        <v>189.45</v>
+        <v>437.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>311.29</v>
+        <v>181.82</v>
       </c>
       <c r="C22" t="n">
-        <v>5344.79</v>
+        <v>3267.15</v>
       </c>
       <c r="D22" t="n">
-        <v>1593.65</v>
+        <v>950.2</v>
       </c>
       <c r="E22" t="n">
-        <v>13990.24</v>
+        <v>8476.91</v>
       </c>
       <c r="F22" t="n">
-        <v>4363.14</v>
+        <v>2431.87</v>
       </c>
       <c r="G22" t="n">
-        <v>12085.31</v>
+        <v>7344.88</v>
       </c>
       <c r="H22" t="n">
-        <v>437.01</v>
-      </c>
-      <c r="I22" t="n">
-        <v>129.47</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2077.64</v>
-      </c>
-      <c r="K22" t="n">
-        <v>643.45</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5513.33</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1931.27</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4740.429999999999</v>
-      </c>
-      <c r="O22" t="n">
-        <v>144.54</v>
+        <v>292.47</v>
       </c>
     </row>
     <row r="23">
@@ -1545,27 +1077,6 @@
       <c r="H23" t="n">
         <v>706</v>
       </c>
-      <c r="I23" t="n">
-        <v>233.3899999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2974.919999999999</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1113.38</v>
-      </c>
-      <c r="L23" t="n">
-        <v>8328.800000000001</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5741.669999999999</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6982.020000000002</v>
-      </c>
-      <c r="O23" t="n">
-        <v>268.99</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1594,124 +1105,61 @@
       <c r="H24" t="n">
         <v>96.37</v>
       </c>
-      <c r="I24" t="n">
-        <v>90.94</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1593.27</v>
-      </c>
-      <c r="K24" t="n">
-        <v>406.83</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3669.03</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1014.15</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3171.26</v>
-      </c>
-      <c r="O24" t="n">
-        <v>96.37</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>261.6</v>
+        <v>430.74</v>
       </c>
       <c r="C25" t="n">
-        <v>4521.14</v>
+        <v>7286.84</v>
       </c>
       <c r="D25" t="n">
-        <v>1069.49</v>
+        <v>1755.84</v>
       </c>
       <c r="E25" t="n">
-        <v>10564.87</v>
+        <v>17558.73</v>
       </c>
       <c r="F25" t="n">
-        <v>2862.25</v>
+        <v>5191.34</v>
       </c>
       <c r="G25" t="n">
-        <v>9233.780000000001</v>
+        <v>15372.16</v>
       </c>
       <c r="H25" t="n">
-        <v>278.31</v>
-      </c>
-      <c r="I25" t="n">
-        <v>170.66</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2927.87</v>
-      </c>
-      <c r="K25" t="n">
-        <v>662.6600000000001</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6895.84</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1848.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6062.52</v>
-      </c>
-      <c r="O25" t="n">
-        <v>181.94</v>
+        <v>485.19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>430.74</v>
+        <v>261.6</v>
       </c>
       <c r="C26" t="n">
-        <v>7286.84</v>
+        <v>4521.14</v>
       </c>
       <c r="D26" t="n">
-        <v>1755.84</v>
+        <v>1069.49</v>
       </c>
       <c r="E26" t="n">
-        <v>17558.73</v>
+        <v>10564.87</v>
       </c>
       <c r="F26" t="n">
-        <v>5191.34</v>
+        <v>2862.25</v>
       </c>
       <c r="G26" t="n">
-        <v>15372.16</v>
+        <v>9233.780000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>485.19</v>
-      </c>
-      <c r="I26" t="n">
-        <v>169.14</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2765.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>686.3499999999999</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6993.859999999999</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2329.09</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6138.379999999999</v>
-      </c>
-      <c r="O26" t="n">
-        <v>206.88</v>
+        <v>278.31</v>
       </c>
     </row>
     <row r="27">
@@ -1741,27 +1189,6 @@
       <c r="H27" t="n">
         <v>825.76</v>
       </c>
-      <c r="I27" t="n">
-        <v>264.78</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4201.959999999999</v>
-      </c>
-      <c r="K27" t="n">
-        <v>974.8300000000002</v>
-      </c>
-      <c r="L27" t="n">
-        <v>10356.27</v>
-      </c>
-      <c r="M27" t="n">
-        <v>6455.039999999999</v>
-      </c>
-      <c r="N27" t="n">
-        <v>9116.66</v>
-      </c>
-      <c r="O27" t="n">
-        <v>340.57</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1790,124 +1217,61 @@
       <c r="H28" t="n">
         <v>126.11</v>
       </c>
-      <c r="I28" t="n">
-        <v>105.31</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2000.57</v>
-      </c>
-      <c r="K28" t="n">
-        <v>423.21</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4477.44</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1132.88</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3948.93</v>
-      </c>
-      <c r="O28" t="n">
-        <v>126.11</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>285.97</v>
+        <v>463.77</v>
       </c>
       <c r="C29" t="n">
-        <v>5577.87</v>
+        <v>9238.469999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>1145.02</v>
+        <v>1856.61</v>
       </c>
       <c r="E29" t="n">
-        <v>12419.5</v>
+        <v>20635.21</v>
       </c>
       <c r="F29" t="n">
-        <v>3316.55</v>
+        <v>5608.38</v>
       </c>
       <c r="G29" t="n">
-        <v>10988.51</v>
+        <v>18314.83</v>
       </c>
       <c r="H29" t="n">
-        <v>367.98</v>
-      </c>
-      <c r="I29" t="n">
-        <v>180.66</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3577.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>721.8099999999999</v>
-      </c>
-      <c r="L29" t="n">
-        <v>7942.06</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2183.67</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7039.58</v>
-      </c>
-      <c r="O29" t="n">
-        <v>241.87</v>
+        <v>543.49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>463.77</v>
+        <v>285.97</v>
       </c>
       <c r="C30" t="n">
-        <v>9238.469999999999</v>
+        <v>5577.87</v>
       </c>
       <c r="D30" t="n">
-        <v>1856.61</v>
+        <v>1145.02</v>
       </c>
       <c r="E30" t="n">
-        <v>20635.21</v>
+        <v>12419.5</v>
       </c>
       <c r="F30" t="n">
-        <v>5608.38</v>
+        <v>3316.55</v>
       </c>
       <c r="G30" t="n">
-        <v>18314.83</v>
+        <v>10988.51</v>
       </c>
       <c r="H30" t="n">
-        <v>543.49</v>
-      </c>
-      <c r="I30" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3660.599999999999</v>
-      </c>
-      <c r="K30" t="n">
-        <v>711.5899999999999</v>
-      </c>
-      <c r="L30" t="n">
-        <v>8215.709999999999</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2291.83</v>
-      </c>
-      <c r="N30" t="n">
-        <v>7326.320000000002</v>
-      </c>
-      <c r="O30" t="n">
-        <v>175.51</v>
+        <v>367.98</v>
       </c>
     </row>
     <row r="31">
@@ -1937,27 +1301,6 @@
       <c r="H31" t="n">
         <v>938.03</v>
       </c>
-      <c r="I31" t="n">
-        <v>268.86</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5044.970000000001</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1051.13</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12690.42</v>
-      </c>
-      <c r="M31" t="n">
-        <v>7148.849999999999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>11370.43</v>
-      </c>
-      <c r="O31" t="n">
-        <v>394.54</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1986,124 +1329,61 @@
       <c r="H32" t="n">
         <v>149.66</v>
       </c>
-      <c r="I32" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2492.52</v>
-      </c>
-      <c r="K32" t="n">
-        <v>493.82</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5405.81</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1294.57</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4797.6</v>
-      </c>
-      <c r="O32" t="n">
-        <v>149.66</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>306.14</v>
+        <v>519.59</v>
       </c>
       <c r="C33" t="n">
-        <v>6674.57</v>
+        <v>10638.48</v>
       </c>
       <c r="D33" t="n">
-        <v>1321</v>
+        <v>2135.21</v>
       </c>
       <c r="E33" t="n">
-        <v>15056.94</v>
+        <v>24832.58</v>
       </c>
       <c r="F33" t="n">
-        <v>3612.38</v>
+        <v>6700</v>
       </c>
       <c r="G33" t="n">
-        <v>13429.8</v>
+        <v>22177.78</v>
       </c>
       <c r="H33" t="n">
-        <v>416.55</v>
-      </c>
-      <c r="I33" t="n">
-        <v>191.74</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4182.049999999999</v>
-      </c>
-      <c r="K33" t="n">
-        <v>827.1800000000001</v>
-      </c>
-      <c r="L33" t="n">
-        <v>9651.130000000001</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2317.81</v>
-      </c>
-      <c r="N33" t="n">
-        <v>8632.199999999999</v>
-      </c>
-      <c r="O33" t="n">
-        <v>266.89</v>
+        <v>715.5599999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>519.59</v>
+        <v>306.14</v>
       </c>
       <c r="C34" t="n">
-        <v>10638.48</v>
+        <v>6674.57</v>
       </c>
       <c r="D34" t="n">
-        <v>2135.21</v>
+        <v>1321</v>
       </c>
       <c r="E34" t="n">
-        <v>24832.58</v>
+        <v>15056.94</v>
       </c>
       <c r="F34" t="n">
-        <v>6700</v>
+        <v>3612.38</v>
       </c>
       <c r="G34" t="n">
-        <v>22177.78</v>
+        <v>13429.8</v>
       </c>
       <c r="H34" t="n">
-        <v>715.5599999999999</v>
-      </c>
-      <c r="I34" t="n">
-        <v>213.45</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3963.91</v>
-      </c>
-      <c r="K34" t="n">
-        <v>814.21</v>
-      </c>
-      <c r="L34" t="n">
-        <v>9775.640000000001</v>
-      </c>
-      <c r="M34" t="n">
-        <v>3087.62</v>
-      </c>
-      <c r="N34" t="n">
-        <v>8747.98</v>
-      </c>
-      <c r="O34" t="n">
-        <v>299.0099999999999</v>
+        <v>416.55</v>
       </c>
     </row>
     <row r="35">
@@ -2133,27 +1413,6 @@
       <c r="H35" t="n">
         <v>1148.61</v>
       </c>
-      <c r="I35" t="n">
-        <v>316.79</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5181.82</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1145</v>
-      </c>
-      <c r="L35" t="n">
-        <v>14030.29</v>
-      </c>
-      <c r="M35" t="n">
-        <v>7812.48</v>
-      </c>
-      <c r="N35" t="n">
-        <v>12568.51</v>
-      </c>
-      <c r="O35" t="n">
-        <v>433.05</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2182,124 +1441,61 @@
       <c r="H36" t="n">
         <v>168.68</v>
       </c>
-      <c r="I36" t="n">
-        <v>136.93</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2633.24</v>
-      </c>
-      <c r="K36" t="n">
-        <v>561.6799999999999</v>
-      </c>
-      <c r="L36" t="n">
-        <v>6088.45</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1518.13</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5389.84</v>
-      </c>
-      <c r="O36" t="n">
-        <v>168.68</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>352.54</v>
+        <v>596.39</v>
       </c>
       <c r="C37" t="n">
-        <v>7611.04</v>
+        <v>12616.48</v>
       </c>
       <c r="D37" t="n">
-        <v>1471.37</v>
+        <v>2382.57</v>
       </c>
       <c r="E37" t="n">
-        <v>17036.17</v>
+        <v>28720.09</v>
       </c>
       <c r="F37" t="n">
-        <v>4222.52</v>
+        <v>7624.62</v>
       </c>
       <c r="G37" t="n">
-        <v>15212.26</v>
+        <v>25741.13</v>
       </c>
       <c r="H37" t="n">
-        <v>494.65</v>
-      </c>
-      <c r="I37" t="n">
-        <v>215.61</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4977.8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>909.6899999999999</v>
-      </c>
-      <c r="L37" t="n">
-        <v>10947.72</v>
-      </c>
-      <c r="M37" t="n">
-        <v>2704.39</v>
-      </c>
-      <c r="N37" t="n">
-        <v>9822.42</v>
-      </c>
-      <c r="O37" t="n">
-        <v>325.97</v>
+        <v>892.84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>596.39</v>
+        <v>352.54</v>
       </c>
       <c r="C38" t="n">
-        <v>12616.48</v>
+        <v>7611.04</v>
       </c>
       <c r="D38" t="n">
-        <v>2382.57</v>
+        <v>1471.37</v>
       </c>
       <c r="E38" t="n">
-        <v>28720.09</v>
+        <v>17036.17</v>
       </c>
       <c r="F38" t="n">
-        <v>7624.62</v>
+        <v>4222.52</v>
       </c>
       <c r="G38" t="n">
-        <v>25741.13</v>
+        <v>15212.26</v>
       </c>
       <c r="H38" t="n">
-        <v>892.84</v>
-      </c>
-      <c r="I38" t="n">
-        <v>243.85</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5005.44</v>
-      </c>
-      <c r="K38" t="n">
-        <v>911.2000000000003</v>
-      </c>
-      <c r="L38" t="n">
-        <v>11683.92</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3402.099999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>10528.87</v>
-      </c>
-      <c r="O38" t="n">
-        <v>398.1900000000001</v>
+        <v>494.65</v>
       </c>
     </row>
     <row r="39">
@@ -2329,27 +1525,6 @@
       <c r="H39" t="n">
         <v>1288.57</v>
       </c>
-      <c r="I39" t="n">
-        <v>384.5600000000001</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6209.380000000001</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1267.64</v>
-      </c>
-      <c r="L39" t="n">
-        <v>14730.15</v>
-      </c>
-      <c r="M39" t="n">
-        <v>9595.440000000002</v>
-      </c>
-      <c r="N39" t="n">
-        <v>13077.95</v>
-      </c>
-      <c r="O39" t="n">
-        <v>395.7299999999999</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2378,124 +1553,61 @@
       <c r="H40" t="n">
         <v>212.56</v>
       </c>
-      <c r="I40" t="n">
-        <v>169.16</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3064.09</v>
-      </c>
-      <c r="K40" t="n">
-        <v>627.5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7018.07</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1906.41</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6221.41</v>
-      </c>
-      <c r="O40" t="n">
-        <v>212.56</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>410.85</v>
+        <v>732.79</v>
       </c>
       <c r="C41" t="n">
-        <v>8953.83</v>
+        <v>14870.71</v>
       </c>
       <c r="D41" t="n">
-        <v>1713.43</v>
+        <v>2792.35</v>
       </c>
       <c r="E41" t="n">
-        <v>19698.23</v>
+        <v>32619.95</v>
       </c>
       <c r="F41" t="n">
-        <v>5248.41</v>
+        <v>9074.33</v>
       </c>
       <c r="G41" t="n">
-        <v>17573.95</v>
+        <v>29094.81</v>
       </c>
       <c r="H41" t="n">
-        <v>613.13</v>
-      </c>
-      <c r="I41" t="n">
-        <v>241.69</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5889.74</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1085.93</v>
-      </c>
-      <c r="L41" t="n">
-        <v>12680.16</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3342</v>
-      </c>
-      <c r="N41" t="n">
-        <v>11352.54</v>
-      </c>
-      <c r="O41" t="n">
-        <v>400.57</v>
+        <v>969.39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>732.79</v>
+        <v>410.85</v>
       </c>
       <c r="C42" t="n">
-        <v>14870.71</v>
+        <v>8953.83</v>
       </c>
       <c r="D42" t="n">
-        <v>2792.35</v>
+        <v>1713.43</v>
       </c>
       <c r="E42" t="n">
-        <v>32619.95</v>
+        <v>19698.23</v>
       </c>
       <c r="F42" t="n">
-        <v>9074.33</v>
+        <v>5248.41</v>
       </c>
       <c r="G42" t="n">
-        <v>29094.81</v>
+        <v>17573.95</v>
       </c>
       <c r="H42" t="n">
-        <v>969.39</v>
-      </c>
-      <c r="I42" t="n">
-        <v>321.9399999999999</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5916.879999999999</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1078.92</v>
-      </c>
-      <c r="L42" t="n">
-        <v>12921.72</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3825.92</v>
-      </c>
-      <c r="N42" t="n">
-        <v>11520.86</v>
-      </c>
-      <c r="O42" t="n">
-        <v>356.26</v>
+        <v>613.13</v>
       </c>
     </row>
     <row r="43">
@@ -2525,27 +1637,6 @@
       <c r="H43" t="n">
         <v>1523.43</v>
       </c>
-      <c r="I43" t="n">
-        <v>446.1500000000001</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6952.450000000001</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1563.93</v>
-      </c>
-      <c r="L43" t="n">
-        <v>16269.34</v>
-      </c>
-      <c r="M43" t="n">
-        <v>11302.66</v>
-      </c>
-      <c r="N43" t="n">
-        <v>14259.26</v>
-      </c>
-      <c r="O43" t="n">
-        <v>554.0400000000001</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2574,124 +1665,61 @@
       <c r="H44" t="n">
         <v>243.45</v>
       </c>
-      <c r="I44" t="n">
-        <v>216.21</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3751.66</v>
-      </c>
-      <c r="K44" t="n">
-        <v>705.59</v>
-      </c>
-      <c r="L44" t="n">
-        <v>8044.86</v>
-      </c>
-      <c r="M44" t="n">
-        <v>2094.71</v>
-      </c>
-      <c r="N44" t="n">
-        <v>7123.07</v>
-      </c>
-      <c r="O44" t="n">
-        <v>243.45</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>516.97</v>
+        <v>802.02</v>
       </c>
       <c r="C45" t="n">
-        <v>10315.95</v>
+        <v>16676.71</v>
       </c>
       <c r="D45" t="n">
-        <v>1944.3</v>
+        <v>2982.32</v>
       </c>
       <c r="E45" t="n">
-        <v>22112.52</v>
+        <v>35895.91</v>
       </c>
       <c r="F45" t="n">
-        <v>6085.13</v>
+        <v>10057.18</v>
       </c>
       <c r="G45" t="n">
-        <v>19651.25</v>
+        <v>32111.57</v>
       </c>
       <c r="H45" t="n">
-        <v>656.3099999999999</v>
-      </c>
-      <c r="I45" t="n">
-        <v>300.76</v>
-      </c>
-      <c r="J45" t="n">
-        <v>6564.290000000001</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1238.71</v>
-      </c>
-      <c r="L45" t="n">
-        <v>14067.66</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3990.42</v>
-      </c>
-      <c r="N45" t="n">
-        <v>12528.18</v>
-      </c>
-      <c r="O45" t="n">
-        <v>412.86</v>
+        <v>1035.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.02</v>
+        <v>516.97</v>
       </c>
       <c r="C46" t="n">
-        <v>16676.71</v>
+        <v>10315.95</v>
       </c>
       <c r="D46" t="n">
-        <v>2982.32</v>
+        <v>1944.3</v>
       </c>
       <c r="E46" t="n">
-        <v>35895.91</v>
+        <v>22112.52</v>
       </c>
       <c r="F46" t="n">
-        <v>10057.18</v>
+        <v>6085.13</v>
       </c>
       <c r="G46" t="n">
-        <v>32111.57</v>
+        <v>19651.25</v>
       </c>
       <c r="H46" t="n">
-        <v>1035.5</v>
-      </c>
-      <c r="I46" t="n">
-        <v>285.05</v>
-      </c>
-      <c r="J46" t="n">
-        <v>6360.759999999998</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1038.02</v>
-      </c>
-      <c r="L46" t="n">
-        <v>13783.39</v>
-      </c>
-      <c r="M46" t="n">
-        <v>3972.05</v>
-      </c>
-      <c r="N46" t="n">
-        <v>12460.32</v>
-      </c>
-      <c r="O46" t="n">
-        <v>379.1900000000001</v>
+        <v>656.3099999999999</v>
       </c>
     </row>
     <row r="47">
@@ -2721,27 +1749,6 @@
       <c r="H47" t="n">
         <v>1515.65</v>
       </c>
-      <c r="I47" t="n">
-        <v>462.8199999999999</v>
-      </c>
-      <c r="J47" t="n">
-        <v>7711.690000000002</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1604.92</v>
-      </c>
-      <c r="L47" t="n">
-        <v>16892.56</v>
-      </c>
-      <c r="M47" t="n">
-        <v>12348.09</v>
-      </c>
-      <c r="N47" t="n">
-        <v>14824.82</v>
-      </c>
-      <c r="O47" t="n">
-        <v>480.1500000000001</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2770,124 +1777,61 @@
       <c r="H48" t="n">
         <v>230.37</v>
       </c>
-      <c r="I48" t="n">
-        <v>217.21</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4126.42</v>
-      </c>
-      <c r="K48" t="n">
-        <v>751.12</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8719.98</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2363.15</v>
-      </c>
-      <c r="N48" t="n">
-        <v>7751.65</v>
-      </c>
-      <c r="O48" t="n">
-        <v>230.37</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>472.36</v>
+        <v>773.6799999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>10801.15</v>
+        <v>17556.27</v>
       </c>
       <c r="D49" t="n">
-        <v>1825.21</v>
+        <v>2948.95</v>
       </c>
       <c r="E49" t="n">
-        <v>22698.25</v>
+        <v>36874.51</v>
       </c>
       <c r="F49" t="n">
-        <v>6407.9</v>
+        <v>11394.13</v>
       </c>
       <c r="G49" t="n">
-        <v>20400.67</v>
+        <v>33151.87</v>
       </c>
       <c r="H49" t="n">
-        <v>615.1799999999999</v>
-      </c>
-      <c r="I49" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="J49" t="n">
-        <v>6674.73</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1074.09</v>
-      </c>
-      <c r="L49" t="n">
-        <v>13978.27</v>
-      </c>
-      <c r="M49" t="n">
-        <v>4044.75</v>
-      </c>
-      <c r="N49" t="n">
-        <v>12649.02</v>
-      </c>
-      <c r="O49" t="n">
-        <v>384.8099999999999</v>
+        <v>1026.81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>773.6799999999999</v>
+        <v>472.36</v>
       </c>
       <c r="C50" t="n">
-        <v>17556.27</v>
+        <v>10801.15</v>
       </c>
       <c r="D50" t="n">
-        <v>2948.95</v>
+        <v>1825.21</v>
       </c>
       <c r="E50" t="n">
-        <v>36874.51</v>
+        <v>22698.25</v>
       </c>
       <c r="F50" t="n">
-        <v>11394.13</v>
+        <v>6407.9</v>
       </c>
       <c r="G50" t="n">
-        <v>33151.87</v>
+        <v>20400.67</v>
       </c>
       <c r="H50" t="n">
-        <v>1026.81</v>
-      </c>
-      <c r="I50" t="n">
-        <v>301.3199999999999</v>
-      </c>
-      <c r="J50" t="n">
-        <v>6755.120000000001</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1123.74</v>
-      </c>
-      <c r="L50" t="n">
-        <v>14176.26</v>
-      </c>
-      <c r="M50" t="n">
-        <v>4986.23</v>
-      </c>
-      <c r="N50" t="n">
-        <v>12751.2</v>
-      </c>
-      <c r="O50" t="n">
-        <v>411.63</v>
+        <v>615.1799999999999</v>
       </c>
     </row>
     <row r="51">
@@ -2917,27 +1861,6 @@
       <c r="H51" t="n">
         <v>1648.28</v>
       </c>
-      <c r="I51" t="n">
-        <v>608.5200000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>8213.84</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1704.54</v>
-      </c>
-      <c r="L51" t="n">
-        <v>18000.41</v>
-      </c>
-      <c r="M51" t="n">
-        <v>13477.69</v>
-      </c>
-      <c r="N51" t="n">
-        <v>15687.36</v>
-      </c>
-      <c r="O51" t="n">
-        <v>621.47</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2966,124 +1889,61 @@
       <c r="H52" t="n">
         <v>268.26</v>
       </c>
-      <c r="I52" t="n">
-        <v>201.69</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4371.26</v>
-      </c>
-      <c r="K52" t="n">
-        <v>815.4400000000001</v>
-      </c>
-      <c r="L52" t="n">
-        <v>9090.24</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2816.8</v>
-      </c>
-      <c r="N52" t="n">
-        <v>8073.1</v>
-      </c>
-      <c r="O52" t="n">
-        <v>268.26</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>573.1900000000001</v>
+        <v>895.0299999999989</v>
       </c>
       <c r="C53" t="n">
-        <v>11807.36</v>
+        <v>19176.9</v>
       </c>
       <c r="D53" t="n">
-        <v>1979.61</v>
+        <v>3153.78999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>24544.55</v>
+        <v>39704.45</v>
       </c>
       <c r="F53" t="n">
-        <v>7523.51</v>
+        <v>12126.53</v>
       </c>
       <c r="G53" t="n">
-        <v>21991.74</v>
+        <v>35655.62</v>
       </c>
       <c r="H53" t="n">
-        <v>761</v>
-      </c>
-      <c r="I53" t="n">
-        <v>371.5000000000001</v>
-      </c>
-      <c r="J53" t="n">
-        <v>7436.1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1164.17</v>
-      </c>
-      <c r="L53" t="n">
-        <v>15454.31</v>
-      </c>
-      <c r="M53" t="n">
-        <v>4706.71</v>
-      </c>
-      <c r="N53" t="n">
-        <v>13918.64</v>
-      </c>
-      <c r="O53" t="n">
-        <v>492.74</v>
+        <v>1135.76999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>895.0299999999989</v>
+        <v>573.1900000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>19176.9</v>
+        <v>11807.36</v>
       </c>
       <c r="D54" t="n">
-        <v>3153.78999999999</v>
+        <v>1979.61</v>
       </c>
       <c r="E54" t="n">
-        <v>39704.45</v>
+        <v>24544.55</v>
       </c>
       <c r="F54" t="n">
-        <v>12126.53</v>
+        <v>7523.51</v>
       </c>
       <c r="G54" t="n">
-        <v>35655.62</v>
+        <v>21991.74</v>
       </c>
       <c r="H54" t="n">
-        <v>1135.76999999999</v>
-      </c>
-      <c r="I54" t="n">
-        <v>321.8399999999989</v>
-      </c>
-      <c r="J54" t="n">
-        <v>7369.540000000001</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1174.17999999999</v>
-      </c>
-      <c r="L54" t="n">
-        <v>15159.9</v>
-      </c>
-      <c r="M54" t="n">
-        <v>4603.02</v>
-      </c>
-      <c r="N54" t="n">
-        <v>13663.88</v>
-      </c>
-      <c r="O54" t="n">
-        <v>374.76999999999</v>
+        <v>761</v>
       </c>
     </row>
     <row r="55">
@@ -3113,27 +1973,6 @@
       <c r="H55" t="n">
         <v>1858.05</v>
       </c>
-      <c r="I55" t="n">
-        <v>528.0900000000009</v>
-      </c>
-      <c r="J55" t="n">
-        <v>9441.889999999999</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1628.94000000001</v>
-      </c>
-      <c r="L55" t="n">
-        <v>19813.44</v>
-      </c>
-      <c r="M55" t="n">
-        <v>13829.93</v>
-      </c>
-      <c r="N55" t="n">
-        <v>17656.42</v>
-      </c>
-      <c r="O55" t="n">
-        <v>722.28000000001</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3162,124 +2001,61 @@
       <c r="H56" t="n">
         <v>292.07</v>
       </c>
-      <c r="I56" t="n">
-        <v>258.99</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4793.63</v>
-      </c>
-      <c r="K56" t="n">
-        <v>870.48</v>
-      </c>
-      <c r="L56" t="n">
-        <v>10137.17</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3131.55</v>
-      </c>
-      <c r="N56" t="n">
-        <v>9007.700000000001</v>
-      </c>
-      <c r="O56" t="n">
-        <v>292.07</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>696.02</v>
+        <v>1096.95</v>
       </c>
       <c r="C57" t="n">
-        <v>13991.78</v>
+        <v>22266.31</v>
       </c>
       <c r="D57" t="n">
-        <v>2258.05</v>
+        <v>3604.47</v>
       </c>
       <c r="E57" t="n">
-        <v>28463.61</v>
+        <v>45302.13</v>
       </c>
       <c r="F57" t="n">
-        <v>7762.98</v>
+        <v>12892.56</v>
       </c>
       <c r="G57" t="n">
-        <v>25509.54</v>
+        <v>40600.71</v>
       </c>
       <c r="H57" t="n">
-        <v>802.8200000000001</v>
-      </c>
-      <c r="I57" t="n">
-        <v>437.03</v>
-      </c>
-      <c r="J57" t="n">
-        <v>9198.150000000001</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1387.57</v>
-      </c>
-      <c r="L57" t="n">
-        <v>18326.44</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4631.429999999999</v>
-      </c>
-      <c r="N57" t="n">
-        <v>16501.84</v>
-      </c>
-      <c r="O57" t="n">
-        <v>510.7500000000001</v>
+        <v>1169.19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1096.95</v>
+        <v>696.02</v>
       </c>
       <c r="C58" t="n">
-        <v>22266.31</v>
+        <v>13991.78</v>
       </c>
       <c r="D58" t="n">
-        <v>3604.47</v>
+        <v>2258.05</v>
       </c>
       <c r="E58" t="n">
-        <v>45302.13</v>
+        <v>28463.61</v>
       </c>
       <c r="F58" t="n">
-        <v>12892.56</v>
+        <v>7762.98</v>
       </c>
       <c r="G58" t="n">
-        <v>40600.71</v>
+        <v>25509.54</v>
       </c>
       <c r="H58" t="n">
-        <v>1169.19</v>
-      </c>
-      <c r="I58" t="n">
-        <v>400.9300000000001</v>
-      </c>
-      <c r="J58" t="n">
-        <v>8274.530000000001</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1346.42</v>
-      </c>
-      <c r="L58" t="n">
-        <v>16838.52</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5129.58</v>
-      </c>
-      <c r="N58" t="n">
-        <v>15091.17</v>
-      </c>
-      <c r="O58" t="n">
-        <v>366.37</v>
+        <v>802.8200000000001</v>
       </c>
     </row>
     <row r="59">
@@ -3309,27 +2085,6 @@
       <c r="H59" t="n">
         <v>1787.12</v>
       </c>
-      <c r="I59" t="n">
-        <v>593.1499999999999</v>
-      </c>
-      <c r="J59" t="n">
-        <v>10442.38</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1810.82</v>
-      </c>
-      <c r="L59" t="n">
-        <v>22454.26</v>
-      </c>
-      <c r="M59" t="n">
-        <v>13779.96</v>
-      </c>
-      <c r="N59" t="n">
-        <v>20050.29</v>
-      </c>
-      <c r="O59" t="n">
-        <v>617.9299999999998</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3358,124 +2113,61 @@
       <c r="H60" t="n">
         <v>328</v>
       </c>
-      <c r="I60" t="n">
-        <v>301.51</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5599.56</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1002.21</v>
-      </c>
-      <c r="L60" t="n">
-        <v>11681.58</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3218.73</v>
-      </c>
-      <c r="N60" t="n">
-        <v>10377.86</v>
-      </c>
-      <c r="O60" t="n">
-        <v>328</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>819.1900000000001</v>
+        <v>1255.37</v>
       </c>
       <c r="C61" t="n">
-        <v>15477.97</v>
+        <v>24572.27</v>
       </c>
       <c r="D61" t="n">
-        <v>2380.86</v>
+        <v>3741.39</v>
       </c>
       <c r="E61" t="n">
-        <v>31212.75</v>
+        <v>49911.5</v>
       </c>
       <c r="F61" t="n">
-        <v>7605.28</v>
+        <v>12674.68</v>
       </c>
       <c r="G61" t="n">
-        <v>28012.69</v>
+        <v>44914.75</v>
       </c>
       <c r="H61" t="n">
-        <v>774.01</v>
-      </c>
-      <c r="I61" t="n">
-        <v>517.6800000000001</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9878.41</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1378.65</v>
-      </c>
-      <c r="L61" t="n">
-        <v>19531.17</v>
-      </c>
-      <c r="M61" t="n">
-        <v>4386.549999999999</v>
-      </c>
-      <c r="N61" t="n">
-        <v>17634.83</v>
-      </c>
-      <c r="O61" t="n">
-        <v>446.01</v>
+        <v>1324.86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1255.37</v>
+        <v>819.1900000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>24572.27</v>
+        <v>15477.97</v>
       </c>
       <c r="D62" t="n">
-        <v>3741.39</v>
+        <v>2380.86</v>
       </c>
       <c r="E62" t="n">
-        <v>49911.5</v>
+        <v>31212.75</v>
       </c>
       <c r="F62" t="n">
-        <v>12674.68</v>
+        <v>7605.28</v>
       </c>
       <c r="G62" t="n">
-        <v>44914.75</v>
+        <v>28012.69</v>
       </c>
       <c r="H62" t="n">
-        <v>1324.86</v>
-      </c>
-      <c r="I62" t="n">
-        <v>436.1799999999998</v>
-      </c>
-      <c r="J62" t="n">
-        <v>9094.300000000001</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1360.53</v>
-      </c>
-      <c r="L62" t="n">
-        <v>18698.75</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5069.400000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>16902.06</v>
-      </c>
-      <c r="O62" t="n">
-        <v>550.8499999999999</v>
+        <v>774.01</v>
       </c>
     </row>
     <row r="63">
@@ -3505,27 +2197,6 @@
       <c r="H63" t="n">
         <v>1963.12</v>
       </c>
-      <c r="I63" t="n">
-        <v>644.46</v>
-      </c>
-      <c r="J63" t="n">
-        <v>12081.47</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2116.47</v>
-      </c>
-      <c r="L63" t="n">
-        <v>26038.10000000001</v>
-      </c>
-      <c r="M63" t="n">
-        <v>14697.86</v>
-      </c>
-      <c r="N63" t="n">
-        <v>23277.16</v>
-      </c>
-      <c r="O63" t="n">
-        <v>638.26</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3554,124 +2225,61 @@
       <c r="H64" t="n">
         <v>305.48</v>
       </c>
-      <c r="I64" t="n">
-        <v>330.35</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6553.27</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1080.09</v>
-      </c>
-      <c r="L64" t="n">
-        <v>13572.25</v>
-      </c>
-      <c r="M64" t="n">
-        <v>3561.29</v>
-      </c>
-      <c r="N64" t="n">
-        <v>12161.81</v>
-      </c>
-      <c r="O64" t="n">
-        <v>305.48</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>884.89</v>
+        <v>1312.83</v>
       </c>
       <c r="C65" t="n">
-        <v>17941.69</v>
+        <v>29015.01</v>
       </c>
       <c r="D65" t="n">
-        <v>2772.52</v>
+        <v>4319.06</v>
       </c>
       <c r="E65" t="n">
-        <v>36308.37</v>
+        <v>58233.46</v>
       </c>
       <c r="F65" t="n">
-        <v>9003.32</v>
+        <v>15914.63</v>
       </c>
       <c r="G65" t="n">
-        <v>32650.95</v>
+        <v>52601.57</v>
       </c>
       <c r="H65" t="n">
-        <v>956.37</v>
-      </c>
-      <c r="I65" t="n">
-        <v>554.54</v>
-      </c>
-      <c r="J65" t="n">
-        <v>11388.42</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1692.43</v>
-      </c>
-      <c r="L65" t="n">
-        <v>22736.12</v>
-      </c>
-      <c r="M65" t="n">
-        <v>5442.03</v>
-      </c>
-      <c r="N65" t="n">
-        <v>20489.14</v>
-      </c>
-      <c r="O65" t="n">
-        <v>650.89</v>
+        <v>1303.37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1312.83</v>
+        <v>884.89</v>
       </c>
       <c r="C66" t="n">
-        <v>29015.01</v>
+        <v>17941.69</v>
       </c>
       <c r="D66" t="n">
-        <v>4319.06</v>
+        <v>2772.52</v>
       </c>
       <c r="E66" t="n">
-        <v>58233.46</v>
+        <v>36308.37</v>
       </c>
       <c r="F66" t="n">
-        <v>15914.63</v>
+        <v>9003.32</v>
       </c>
       <c r="G66" t="n">
-        <v>52601.57</v>
+        <v>32650.95</v>
       </c>
       <c r="H66" t="n">
-        <v>1303.37</v>
-      </c>
-      <c r="I66" t="n">
-        <v>427.9399999999999</v>
-      </c>
-      <c r="J66" t="n">
-        <v>11073.32</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1546.54</v>
-      </c>
-      <c r="L66" t="n">
-        <v>21925.09</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6911.309999999999</v>
-      </c>
-      <c r="N66" t="n">
-        <v>19950.62</v>
-      </c>
-      <c r="O66" t="n">
-        <v>346.9999999999999</v>
+        <v>956.37</v>
       </c>
     </row>
     <row r="67">
@@ -3701,27 +2309,6 @@
       <c r="H67" t="n">
         <v>1887.42</v>
       </c>
-      <c r="I67" t="n">
-        <v>808.4099999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>12995.90000000001</v>
-      </c>
-      <c r="K67" t="n">
-        <v>2043.41</v>
-      </c>
-      <c r="L67" t="n">
-        <v>27133.63</v>
-      </c>
-      <c r="M67" t="n">
-        <v>15682.32</v>
-      </c>
-      <c r="N67" t="n">
-        <v>24281.81</v>
-      </c>
-      <c r="O67" t="n">
-        <v>584.0500000000002</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3750,124 +2337,61 @@
       <c r="H68" t="n">
         <v>251.84</v>
       </c>
-      <c r="I68" t="n">
-        <v>323.88</v>
-      </c>
-      <c r="J68" t="n">
-        <v>6022.97</v>
-      </c>
-      <c r="K68" t="n">
-        <v>957.91</v>
-      </c>
-      <c r="L68" t="n">
-        <v>11964.1</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2792.25</v>
-      </c>
-      <c r="N68" t="n">
-        <v>10682.31</v>
-      </c>
-      <c r="O68" t="n">
-        <v>251.84</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1061.93</v>
+        <v>1619.05</v>
       </c>
       <c r="C69" t="n">
-        <v>19402.24</v>
+        <v>32307.69</v>
       </c>
       <c r="D69" t="n">
-        <v>2810.17</v>
+        <v>4437.82</v>
       </c>
       <c r="E69" t="n">
-        <v>37809.95</v>
+        <v>62914.82</v>
       </c>
       <c r="F69" t="n">
-        <v>8422.370000000001</v>
+        <v>15223.34</v>
       </c>
       <c r="G69" t="n">
-        <v>33937.85</v>
+        <v>56857.95</v>
       </c>
       <c r="H69" t="n">
-        <v>732.39</v>
-      </c>
-      <c r="I69" t="n">
-        <v>738.0500000000001</v>
-      </c>
-      <c r="J69" t="n">
-        <v>13379.27</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1852.26</v>
-      </c>
-      <c r="L69" t="n">
-        <v>25845.85</v>
-      </c>
-      <c r="M69" t="n">
-        <v>5630.120000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>23255.54</v>
-      </c>
-      <c r="O69" t="n">
-        <v>480.55</v>
+        <v>1327.17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1619.05</v>
+        <v>1061.93</v>
       </c>
       <c r="C70" t="n">
-        <v>32307.69</v>
+        <v>19402.24</v>
       </c>
       <c r="D70" t="n">
-        <v>4437.82</v>
+        <v>2810.17</v>
       </c>
       <c r="E70" t="n">
-        <v>62914.82</v>
+        <v>37809.95</v>
       </c>
       <c r="F70" t="n">
-        <v>15223.34</v>
+        <v>8422.370000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>56857.95</v>
+        <v>33937.85</v>
       </c>
       <c r="H70" t="n">
-        <v>1327.17</v>
-      </c>
-      <c r="I70" t="n">
-        <v>557.1199999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>12905.45</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1627.65</v>
-      </c>
-      <c r="L70" t="n">
-        <v>25104.87</v>
-      </c>
-      <c r="M70" t="n">
-        <v>6800.969999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>22920.1</v>
-      </c>
-      <c r="O70" t="n">
-        <v>594.7800000000001</v>
+        <v>732.39</v>
       </c>
     </row>
     <row r="71">
@@ -3897,27 +2421,6 @@
       <c r="H71" t="n">
         <v>1995.17</v>
       </c>
-      <c r="I71" t="n">
-        <v>904.51</v>
-      </c>
-      <c r="J71" t="n">
-        <v>15783.76</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2526.75</v>
-      </c>
-      <c r="L71" t="n">
-        <v>32991.87</v>
-      </c>
-      <c r="M71" t="n">
-        <v>17477.88</v>
-      </c>
-      <c r="N71" t="n">
-        <v>29560.62000000001</v>
-      </c>
-      <c r="O71" t="n">
-        <v>668</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3946,124 +2449,61 @@
       <c r="H72" t="n">
         <v>378.65</v>
       </c>
-      <c r="I72" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>8324.75</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1241.3</v>
-      </c>
-      <c r="L72" t="n">
-        <v>16720</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4544.02</v>
-      </c>
-      <c r="N72" t="n">
-        <v>15082.1</v>
-      </c>
-      <c r="O72" t="n">
-        <v>378.65</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1175.57</v>
+        <v>1725.54</v>
       </c>
       <c r="C73" t="n">
-        <v>23454.05</v>
+        <v>37863.96</v>
       </c>
       <c r="D73" t="n">
-        <v>3191.74</v>
+        <v>5182.61</v>
       </c>
       <c r="E73" t="n">
-        <v>46131.63</v>
+        <v>74470.89</v>
       </c>
       <c r="F73" t="n">
-        <v>11741.09</v>
+        <v>20450.74</v>
       </c>
       <c r="G73" t="n">
-        <v>41764.31</v>
+        <v>67562.74000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>998.33</v>
-      </c>
-      <c r="I73" t="n">
-        <v>778.9699999999999</v>
-      </c>
-      <c r="J73" t="n">
-        <v>15129.3</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1950.44</v>
-      </c>
-      <c r="L73" t="n">
-        <v>29411.63</v>
-      </c>
-      <c r="M73" t="n">
-        <v>7197.07</v>
-      </c>
-      <c r="N73" t="n">
-        <v>26682.21</v>
-      </c>
-      <c r="O73" t="n">
-        <v>619.6800000000001</v>
+        <v>1567.66</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1725.54</v>
+        <v>1175.57</v>
       </c>
       <c r="C74" t="n">
-        <v>37863.96</v>
+        <v>23454.05</v>
       </c>
       <c r="D74" t="n">
-        <v>5182.61</v>
+        <v>3191.74</v>
       </c>
       <c r="E74" t="n">
-        <v>74470.89</v>
+        <v>46131.63</v>
       </c>
       <c r="F74" t="n">
-        <v>20450.74</v>
+        <v>11741.09</v>
       </c>
       <c r="G74" t="n">
-        <v>67562.74000000001</v>
+        <v>41764.31</v>
       </c>
       <c r="H74" t="n">
-        <v>1567.66</v>
-      </c>
-      <c r="I74" t="n">
-        <v>549.97</v>
-      </c>
-      <c r="J74" t="n">
-        <v>14409.91</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1990.87</v>
-      </c>
-      <c r="L74" t="n">
-        <v>28339.26</v>
-      </c>
-      <c r="M74" t="n">
-        <v>8709.650000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>25798.43000000001</v>
-      </c>
-      <c r="O74" t="n">
-        <v>569.33</v>
+        <v>998.33</v>
       </c>
     </row>
     <row r="75">
@@ -4073,46 +2513,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2623.64</v>
+        <v>2760.11</v>
       </c>
       <c r="C75" t="n">
-        <v>55023.21</v>
+        <v>55391.98</v>
       </c>
       <c r="D75" t="n">
-        <v>7865.38</v>
+        <v>8025.93</v>
       </c>
       <c r="E75" t="n">
-        <v>110465.89</v>
+        <v>112922.5</v>
       </c>
       <c r="F75" t="n">
-        <v>40799.99</v>
+        <v>41946.75</v>
       </c>
       <c r="G75" t="n">
-        <v>99976.87</v>
+        <v>102136.46</v>
       </c>
       <c r="H75" t="n">
-        <v>2321.47</v>
-      </c>
-      <c r="I75" t="n">
-        <v>898.0999999999999</v>
-      </c>
-      <c r="J75" t="n">
-        <v>17159.25</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2682.77</v>
-      </c>
-      <c r="L75" t="n">
-        <v>35995</v>
-      </c>
-      <c r="M75" t="n">
-        <v>20349.25</v>
-      </c>
-      <c r="N75" t="n">
-        <v>32414.12999999999</v>
-      </c>
-      <c r="O75" t="n">
-        <v>753.8099999999997</v>
+        <v>2378.35</v>
       </c>
     </row>
   </sheetData>
